--- a/PIID/PLAN.xlsx
+++ b/PIID/PLAN.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>PLAN</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Verified- Y/N</t>
   </si>
   <si>
-    <t>GGE200</t>
-  </si>
-  <si>
-    <t>CHAR - GGE200-FI/LI</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
@@ -90,31 +84,10 @@
     <t>Doc</t>
   </si>
   <si>
-    <t>S:MPP contains  top-level work breakdown structure (WBS)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>PM affiremd that MPP contain the list of task which has to be performed during project</t>
-  </si>
-  <si>
-    <t>Aff</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assign people to tasks. </t>
   </si>
   <si>
     <t>WBS of project consists of resource plan against each task</t>
-  </si>
-  <si>
-    <t>s:Roles and responsibility section in project planning indicates the roles and responsibility of all the stakeholders</t>
-  </si>
-  <si>
-    <t>S: In Resource Column of MPP stakeholder name against each task has been mentioned</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -123,28 +96,10 @@
     <t xml:space="preserve">Develop and keep updated the approach for accomplishing the work. </t>
   </si>
   <si>
-    <t xml:space="preserve">s: Task in MPP have been scheduled  as per project life cycle </t>
-  </si>
-  <si>
-    <t>s:updated project plan is available on share point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM affirmed that they update the MPP after completion of each  task </t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan for the knowledge and skills needed to perform the work. </t>
   </si>
   <si>
     <t>Training plan section consists of required and available work experience to complete the tasks.</t>
-  </si>
-  <si>
-    <t>s: In the section of training plan of project planning, skill/experience section showing total experience of the team  &amp; project Manager.</t>
-  </si>
-  <si>
-    <t>i:training specific to the role should be given</t>
-  </si>
-  <si>
-    <t>PM affirmed that training on SMF battery has been identified in the project  to meet project schedule</t>
   </si>
   <si>
     <t xml:space="preserve">Based on recorded estimates, develop and keep updated the budget and schedule. </t>
@@ -153,69 +108,25 @@
     <t>Budget section of project plan</t>
   </si>
   <si>
-    <t>s: In section of  Budget Requirements: Budget planning for additional NRE has been done</t>
-  </si>
-  <si>
-    <t>s: In MPP schedule is updated on the bases of project progress</t>
-  </si>
-  <si>
-    <t>PM affirmed that additional NRE buget taken for SMF battery purchase and MPP updated after completion of every task</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan the involvement of identified stakeholders. </t>
   </si>
   <si>
     <t>Schedule of project consists of resource plan against each task</t>
   </si>
   <si>
-    <t>PM affirmed that in plan document all Stakeholders are identified to perform project activites</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan transition to operations and support. </t>
-  </si>
-  <si>
-    <t>s: In the section of Configuration &amp; Data Management Plan, list of documents are mentioned which are to be released for supporting production</t>
-  </si>
-  <si>
-    <t>s: task and schedule mentioned in the mpp</t>
-  </si>
-  <si>
-    <t>PM affirmed that document which are required for production has been mentioned in the clouser report and they have received the pilot report from production.</t>
   </si>
   <si>
     <t xml:space="preserve">Ensure plans are feasible by reconciling available and estimated resources. </t>
   </si>
   <si>
-    <t>s: Minutes of Meeting depicts the involvement of stakeholder during planning</t>
-  </si>
-  <si>
-    <t>s: E mail sent to senior management for plan approval and e mail sent  to stakeholder for approval information</t>
-  </si>
-  <si>
-    <t>PM affirmed that SM approve the plan and MPP has been updated as per change in the schedule due to delay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Develop the project plan, ensure consistency among its elements, and keep it updated. </t>
-  </si>
-  <si>
-    <t>s:project plan has been updated during project lifecycle  and revision history is available on SharePoint</t>
-  </si>
-  <si>
-    <t>PM affirmed that  Budget, schedule, risk, resources, skills ect has been done  and updated during project lifecycle</t>
   </si>
   <si>
     <t xml:space="preserve">Review plans and obtain commitments from affected stakeholders. </t>
   </si>
   <si>
     <t>Stakeholders affirmation on planned schedule, resources etc.</t>
-  </si>
-  <si>
-    <t>s: Approved project planning at share point showing the commitment of team and get the approval from senior management
-Stakeholder send the affirmation through email</t>
-  </si>
-  <si>
-    <t>PM affirmed that SM has approved the project plan and remark of  SM has been caputured in MOM.
-Approved planned share to all stakeholder</t>
   </si>
   <si>
     <t>Level 3</t>
@@ -227,32 +138,13 @@
     <t>Project life cycle showing project flow, as provided by organization.</t>
   </si>
   <si>
-    <t>s: Complete life cycle has been used in GGE200 project</t>
-  </si>
-  <si>
-    <t>s: planning template used which provided by org.</t>
-  </si>
-  <si>
-    <t>s: Estimation template used which provided by org.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Develop a plan and keep it updated, using the project process, the organization’s process assets, and the measurement repository. </t>
   </si>
   <si>
     <t>GGE302_take reference from GGE295 estimation repository</t>
   </si>
   <si>
-    <t>s: For project related activies different template used which provided by org.</t>
-  </si>
-  <si>
-    <t>PM affirmed that they have used  template available on QMS3.1and also refer guidelines provided by org.
-PM also affirmed that they have taken ref from old project to do estimation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identify and negotiate critical dependencies. </t>
-  </si>
-  <si>
-    <t>s: Training related dependecies identified in risk matrix</t>
   </si>
   <si>
     <t>GGE302_RSKMTX</t>
@@ -261,25 +153,10 @@
     <t>Critical dependecies mentioned in risk matrix.</t>
   </si>
   <si>
-    <t>s:All Stake Holder Activity in mpp</t>
-  </si>
-  <si>
-    <t>PM affirmed that critical dependencies are identified in MPP and in review meeting with SM they have identified training as a risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan for the project environment and keep it updated based on the organization’s standards. </t>
   </si>
   <si>
-    <t>s: no additional requirement mentioned in work environment section of project plan</t>
-  </si>
-  <si>
     <t>Project resources constitute project work environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s:Resources required for the project identified in the project plan. The resources include Human resources, Machine, Material  resources. </t>
-  </si>
-  <si>
-    <t>PM affirmed that in resources section of project plan that they identified the resources and tools required for the project.</t>
   </si>
   <si>
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
@@ -322,6 +199,12 @@
   </si>
   <si>
     <t>Asset and knowledge section.</t>
+  </si>
+  <si>
+    <t>GGE302</t>
+  </si>
+  <si>
+    <t>CHAR - GGE302-FI/LI</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1058,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B18"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1242,54 +1125,50 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="38.25">
+    <row r="4" spans="1:18" ht="25.5">
       <c r="A4" s="49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="51">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>IF(LEN(E4)&gt;5,IF(LEN(K4&amp;L4&amp;M4)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="12" t="str">
         <f>IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
-        <v>S</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J4" s="12"/>
       <c r="K4" s="8" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" ref="L4:M19" si="0">IF(COUNTIFS($E4,"*"&amp;L$3&amp;"*")&gt;=1,"X","")</f>
@@ -1299,15 +1178,13 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="1:18" ht="38.25">
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="49"/>
       <c r="B5" s="52"/>
       <c r="C5" s="58"/>
@@ -1316,20 +1193,14 @@
         <v>-</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="12" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="8" t="str">
         <f t="shared" ref="K5:M68" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v/>
@@ -1803,40 +1674,36 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="49"/>
     </row>
-    <row r="19" spans="1:18" ht="63.75">
+    <row r="19" spans="1:18" ht="25.5">
       <c r="A19" s="49"/>
       <c r="B19" s="51">
         <v>1.2</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J19" s="12"/>
       <c r="K19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1846,9 +1713,7 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="51"/>
@@ -1863,27 +1728,23 @@
         <v>OK</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J20" s="12"/>
       <c r="K20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" si="3"/>
@@ -1909,17 +1770,13 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2360,40 +2217,36 @@
     </row>
     <row r="34" spans="1:18" ht="51">
       <c r="A34" s="49" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" s="51">
         <v>2.1</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="H34" s="5"/>
       <c r="I34" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J34" s="12"/>
       <c r="K34" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L34" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2403,15 +2256,13 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="51"/>
       <c r="R34" s="49"/>
     </row>
-    <row r="35" spans="1:18" ht="25.5">
+    <row r="35" spans="1:18" ht="15.75">
       <c r="A35" s="49"/>
       <c r="B35" s="52"/>
       <c r="C35" s="58"/>
@@ -2420,25 +2271,21 @@
         <v>OK</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H35" s="5"/>
       <c r="I35" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J35" s="12"/>
       <c r="K35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L35" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2454,7 +2301,7 @@
       <c r="Q35" s="52"/>
       <c r="R35" s="49"/>
     </row>
-    <row r="36" spans="1:18" ht="38.25">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="49"/>
       <c r="B36" s="52"/>
       <c r="C36" s="58"/>
@@ -2463,20 +2310,14 @@
         <v>-</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="5"/>
       <c r="I36" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J36" s="12"/>
       <c r="K36" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2921,34 +2762,30 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J49" s="12"/>
       <c r="K49" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L49" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2958,9 +2795,7 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="51"/>
@@ -2975,27 +2810,23 @@
         <v>OK</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>i</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J50" s="12"/>
       <c r="K50" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L50" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3020,20 +2851,14 @@
         <v>-</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="8"/>
       <c r="I51" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J51" s="12"/>
       <c r="K51" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3478,34 +3303,30 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="H64" s="5"/>
       <c r="I64" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J64" s="12"/>
       <c r="K64" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L64" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3515,9 +3336,7 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="51"/>
@@ -3532,27 +3351,23 @@
         <v>OK</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J65" s="12"/>
       <c r="K65" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L65" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3577,20 +3392,14 @@
         <v>-</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="5"/>
       <c r="I66" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J66" s="12"/>
       <c r="K66" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4035,34 +3844,30 @@
         <v>2.4</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H79" s="5"/>
       <c r="I79" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J79" s="12"/>
       <c r="K79" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L79" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4072,15 +3877,13 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N79" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="51"/>
       <c r="R79" s="49"/>
     </row>
-    <row r="80" spans="1:18" ht="63.75">
+    <row r="80" spans="1:18" ht="51">
       <c r="A80" s="49"/>
       <c r="B80" s="52"/>
       <c r="C80" s="59"/>
@@ -4089,27 +3892,23 @@
         <v>OK</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J80" s="12"/>
       <c r="K80" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L80" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4125,7 +3924,7 @@
       <c r="Q80" s="52"/>
       <c r="R80" s="49"/>
     </row>
-    <row r="81" spans="1:18" ht="51">
+    <row r="81" spans="1:18" ht="15.75">
       <c r="A81" s="49"/>
       <c r="B81" s="52"/>
       <c r="C81" s="59"/>
@@ -4134,20 +3933,14 @@
         <v>-</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="8"/>
       <c r="I81" s="12" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J81" s="12"/>
       <c r="K81" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4592,34 +4385,30 @@
         <v>2.5</v>
       </c>
       <c r="C94" s="59" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H94" s="5"/>
       <c r="I94" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J94" s="12"/>
       <c r="K94" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L94" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4629,9 +4418,7 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N94" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="54"/>
@@ -4646,27 +4433,23 @@
         <v>OK</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J95" s="12"/>
       <c r="K95" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L95" s="8" t="str">
         <f t="shared" si="6"/>
@@ -4691,20 +4474,14 @@
         <v>-</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="8"/>
       <c r="I96" s="12" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5149,34 +4926,30 @@
         <v>2.6</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H109" s="5"/>
       <c r="I109" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J109" s="12"/>
       <c r="K109" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L109" s="8" t="str">
         <f t="shared" si="6"/>
@@ -5186,9 +4959,7 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N109" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="54"/>
@@ -5203,27 +4974,23 @@
         <v>OK</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H110" s="5"/>
       <c r="I110" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J110" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J110" s="12"/>
       <c r="K110" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L110" s="8" t="str">
         <f t="shared" si="6"/>
@@ -5239,7 +5006,7 @@
       <c r="Q110" s="55"/>
       <c r="R110" s="50"/>
     </row>
-    <row r="111" spans="1:18" ht="51">
+    <row r="111" spans="1:18" ht="15.75">
       <c r="A111" s="49"/>
       <c r="B111" s="55"/>
       <c r="C111" s="59"/>
@@ -5248,9 +5015,7 @@
         <v>-</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="10"/>
       <c r="H111" s="8"/>
       <c r="I111" s="12" t="str">
@@ -5702,34 +5467,30 @@
         <v>2.7</v>
       </c>
       <c r="C124" s="59" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="H124" s="5"/>
       <c r="I124" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="J124" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J124" s="12"/>
       <c r="K124" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L124" s="8" t="str">
         <f t="shared" si="6"/>
@@ -5739,15 +5500,13 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N124" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="54"/>
       <c r="R124" s="50"/>
     </row>
-    <row r="125" spans="1:18" ht="51">
+    <row r="125" spans="1:18" ht="15.75">
       <c r="A125" s="49"/>
       <c r="B125" s="55"/>
       <c r="C125" s="59"/>
@@ -5756,20 +5515,14 @@
         <v>-</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="5"/>
       <c r="I125" s="12" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J125" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J125" s="12"/>
       <c r="K125" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6249,7 +6002,7 @@
         <v>2.8</v>
       </c>
       <c r="C139" s="59" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6282,7 +6035,7 @@
       <c r="Q139" s="54"/>
       <c r="R139" s="50"/>
     </row>
-    <row r="140" spans="1:18" ht="89.25">
+    <row r="140" spans="1:18" ht="25.5">
       <c r="A140" s="49"/>
       <c r="B140" s="55"/>
       <c r="C140" s="59"/>
@@ -6291,27 +6044,23 @@
         <v>OK</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H140" s="5"/>
       <c r="I140" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J140" s="12"/>
       <c r="K140" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L140" s="8" t="str">
         <f t="shared" si="9"/>
@@ -6321,15 +6070,13 @@
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="N140" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="55"/>
       <c r="R140" s="50"/>
     </row>
-    <row r="141" spans="1:18" ht="89.25">
+    <row r="141" spans="1:18" ht="15.75">
       <c r="A141" s="49"/>
       <c r="B141" s="55"/>
       <c r="C141" s="59"/>
@@ -6338,20 +6085,14 @@
         <v>-</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="8"/>
       <c r="I141" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J141" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J141" s="12"/>
       <c r="K141" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6792,25 +6533,27 @@
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1">
       <c r="A154" s="50" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B154" s="54">
         <v>3.1</v>
       </c>
       <c r="C154" s="59" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D154" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E154" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G154" s="10"/>
       <c r="H154" s="5"/>
       <c r="I154" s="12" t="str">
         <f t="shared" si="8"/>
@@ -6819,7 +6562,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L154" s="8" t="str">
         <f t="shared" si="9"/>
@@ -6835,7 +6578,7 @@
       <c r="Q154" s="54"/>
       <c r="R154" s="50"/>
     </row>
-    <row r="155" spans="1:18" ht="25.5">
+    <row r="155" spans="1:18" ht="15.75">
       <c r="A155" s="50"/>
       <c r="B155" s="55"/>
       <c r="C155" s="59"/>
@@ -6846,18 +6589,14 @@
       <c r="E155" s="6"/>
       <c r="F155" s="13"/>
       <c r="G155" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H155" s="5"/>
       <c r="I155" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J155" s="12"/>
       <c r="K155" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6870,15 +6609,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N155" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155" s="55"/>
       <c r="R155" s="50"/>
     </row>
-    <row r="156" spans="1:18" ht="25.5">
+    <row r="156" spans="1:18" ht="15.75">
       <c r="A156" s="50"/>
       <c r="B156" s="55"/>
       <c r="C156" s="59"/>
@@ -6889,18 +6626,14 @@
       <c r="E156" s="9"/>
       <c r="F156" s="15"/>
       <c r="G156" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H156" s="5"/>
       <c r="I156" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J156" s="12"/>
       <c r="K156" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6919,7 +6652,7 @@
       <c r="Q156" s="55"/>
       <c r="R156" s="50"/>
     </row>
-    <row r="157" spans="1:18" ht="25.5">
+    <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="50"/>
       <c r="B157" s="55"/>
       <c r="C157" s="59"/>
@@ -6930,18 +6663,14 @@
       <c r="E157" s="9"/>
       <c r="F157" s="15"/>
       <c r="G157" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H157" s="5"/>
       <c r="I157" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J157" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J157" s="12"/>
       <c r="K157" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6970,17 +6699,13 @@
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="15"/>
-      <c r="G158" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="G158" s="10"/>
       <c r="H158" s="5"/>
       <c r="I158" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J158" s="12"/>
       <c r="K158" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -7355,34 +7080,30 @@
         <v>3.2</v>
       </c>
       <c r="C169" s="59" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D169" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H169" s="5"/>
       <c r="I169" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J169" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J169" s="12"/>
       <c r="K169" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L169" s="8" t="str">
         <f t="shared" si="10"/>
@@ -7392,9 +7113,7 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="N169" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
       <c r="Q169" s="54"/>
@@ -7409,23 +7128,21 @@
         <v>OK</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J170" s="12"/>
       <c r="K170" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L170" s="8" t="str">
         <f t="shared" si="10"/>
@@ -7441,7 +7158,7 @@
       <c r="Q170" s="55"/>
       <c r="R170" s="50"/>
     </row>
-    <row r="171" spans="1:18" ht="89.25">
+    <row r="171" spans="1:18" ht="15.75">
       <c r="A171" s="50"/>
       <c r="B171" s="55"/>
       <c r="C171" s="59"/>
@@ -7450,20 +7167,14 @@
         <v>-</v>
       </c>
       <c r="E171" s="9"/>
-      <c r="F171" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="5"/>
       <c r="I171" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J171" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J171" s="12"/>
       <c r="K171" s="8" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7908,34 +7619,30 @@
         <v>3.3</v>
       </c>
       <c r="C184" s="59" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D184" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E184" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="H184" s="8"/>
       <c r="I184" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J184" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J184" s="12"/>
       <c r="K184" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L184" s="8" t="str">
         <f t="shared" si="10"/>
@@ -7945,9 +7652,7 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="N184" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
       <c r="Q184" s="54"/>
@@ -7962,27 +7667,23 @@
         <v>OK</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" s="8" t="s">
-        <v>75</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H185" s="8"/>
       <c r="I185" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>s</v>
-      </c>
-      <c r="J185" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J185" s="12"/>
       <c r="K185" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L185" s="8" t="str">
         <f t="shared" si="10"/>
@@ -8009,16 +7710,14 @@
       <c r="E186" s="9"/>
       <c r="F186" s="7"/>
       <c r="G186" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J186" s="12"/>
       <c r="K186" s="8" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8037,7 +7736,7 @@
       <c r="Q186" s="55"/>
       <c r="R186" s="50"/>
     </row>
-    <row r="187" spans="1:18" ht="63.75">
+    <row r="187" spans="1:18" ht="15.75">
       <c r="A187" s="50"/>
       <c r="B187" s="55"/>
       <c r="C187" s="59"/>
@@ -8046,20 +7745,14 @@
         <v>-</v>
       </c>
       <c r="E187" s="9"/>
-      <c r="F187" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G187" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="5"/>
       <c r="I187" s="12" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J187" s="12"/>
       <c r="K187" s="8" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8469,34 +8162,30 @@
         <v>3.4</v>
       </c>
       <c r="C199" s="59" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D199" s="5" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="E199" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F199" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G199" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="H199" s="5"/>
       <c r="I199" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>s</v>
-      </c>
-      <c r="J199" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J199" s="12"/>
       <c r="K199" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L199" s="8" t="str">
         <f t="shared" si="13"/>
@@ -8506,9 +8195,7 @@
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="N199" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
       <c r="Q199" s="54"/>
@@ -8523,27 +8210,23 @@
         <v>OK</v>
       </c>
       <c r="E200" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F200" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="H200" s="5"/>
       <c r="I200" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>s</v>
-      </c>
-      <c r="J200" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J200" s="12"/>
       <c r="K200" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L200" s="8" t="str">
         <f t="shared" si="13"/>
@@ -8559,7 +8242,7 @@
       <c r="Q200" s="55"/>
       <c r="R200" s="50"/>
     </row>
-    <row r="201" spans="1:18" ht="51">
+    <row r="201" spans="1:18" ht="15.75">
       <c r="A201" s="50"/>
       <c r="B201" s="55"/>
       <c r="C201" s="59"/>
@@ -8568,20 +8251,14 @@
         <v>-</v>
       </c>
       <c r="E201" s="17"/>
-      <c r="F201" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G201" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="F201" s="14"/>
+      <c r="G201" s="18"/>
       <c r="H201" s="5"/>
       <c r="I201" s="12" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="J201" s="12"/>
       <c r="K201" s="8" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -11135,7 +10812,7 @@
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
       <c r="A275" s="44" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B275" s="44"/>
       <c r="C275" s="44"/>

--- a/PIID/PLAN.xlsx
+++ b/PIID/PLAN.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>PLAN</t>
   </si>
@@ -78,16 +78,10 @@
     <t>GGE302_PLAN</t>
   </si>
   <si>
-    <t>WBS of project consists of every tasks list</t>
-  </si>
-  <si>
     <t>Doc</t>
   </si>
   <si>
     <t xml:space="preserve">Assign people to tasks. </t>
-  </si>
-  <si>
-    <t>WBS of project consists of resource plan against each task</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plan for the knowledge and skills needed to perform the work. </t>
-  </si>
-  <si>
-    <t>Training plan section consists of required and available work experience to complete the tasks.</t>
   </si>
   <si>
     <t xml:space="preserve">Based on recorded estimates, develop and keep updated the budget and schedule. </t>
@@ -156,9 +147,6 @@
     <t xml:space="preserve">Plan for the project environment and keep it updated based on the organization’s standards. </t>
   </si>
   <si>
-    <t>Project resources constitute project work environment.</t>
-  </si>
-  <si>
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
   </si>
   <si>
     <t>In pre planning meeting discussed the roles, and in deploy the plan meeting task conveyed.</t>
-  </si>
-  <si>
-    <t>WBS of project consists of every tasks list and it is updated on regular basis. It can be tracked through Publish log history.</t>
   </si>
   <si>
     <t>Talent needs and gaps of project plan identified the need of training / skills.</t>
@@ -198,20 +183,54 @@
     <t>Critical resources CREO tool, SMF Batteries etc in Asset section (resource plan)</t>
   </si>
   <si>
-    <t>Asset and knowledge section.</t>
-  </si>
-  <si>
     <t>GGE302</t>
   </si>
   <si>
     <t>CHAR - GGE302-FI/LI</t>
+  </si>
+  <si>
+    <t>For all task defined task Id and discription in Project Plan</t>
+  </si>
+  <si>
+    <t>All defined tasks have relevant people. And all relevent peopele added in project team</t>
+  </si>
+  <si>
+    <t>project consists of every tasks list and it is updated on regular basis. It can be tracked through task  comments .</t>
+  </si>
+  <si>
+    <t>Product knowledge releted actiivity plan and team meeting dicussion in kick off meeting.</t>
+  </si>
+  <si>
+    <t>For new member work releted  knowlege plan done like validation handover .</t>
+  </si>
+  <si>
+    <t>Telent Map  And GAP</t>
+  </si>
+  <si>
+    <t>Each task defiend with time  in form of days.</t>
+  </si>
+  <si>
+    <t>Review plan planned at all  stage and valuable / critical artefacts -like plan ,RTT ,Requirment, design,implemetation,testing,etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep the project enviroment  releted things like Assets, tool  and equipment  that peapol need to perform theire job.
+all testing releted task  (Moidule testing ,integration testing ,and validation) relevent environment ,equipment and tools are planed </t>
+  </si>
+  <si>
+    <t>Product traning planed in validation handover task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all relevent ad reqired resources avilable so no need to plan to assign responcibility to plan to acquire resources and facilitries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the contigency plan if the resource and facilities and environment can not be obtained -we are tanen care all long tetsing releted plan with effort of 30-40% at eachj day . in case inavilability of any thing can be managed next day or by befor day.or can be managed full effort on single day. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,12 +301,6 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -456,7 +469,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,19 +520,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -528,7 +532,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
@@ -543,7 +547,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,7 +559,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -573,7 +577,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -585,13 +589,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -609,33 +613,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,6 +625,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,7 +665,21 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1073,25 +1097,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="57">
       <c r="A3" s="3" t="s">
@@ -1125,12 +1149,12 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1138,13 +1162,13 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="25.5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1155,10 +1179,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="12" t="str">
@@ -1181,13 +1205,13 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="49"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -1216,13 +1240,13 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="49"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1251,13 +1275,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="49"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1286,13 +1310,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="49"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1321,13 +1345,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="49"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1356,13 +1380,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="49"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1391,13 +1415,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="49"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1426,13 +1450,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="49"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="49"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1461,13 +1485,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="49"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1496,13 +1520,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="49"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="46"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1531,13 +1555,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="49"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1566,13 +1590,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="49"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1601,13 +1625,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="49"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1636,13 +1660,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="49"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1671,16 +1695,16 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="49"/>
-    </row>
-    <row r="19" spans="1:18" ht="25.5">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51">
+      <c r="Q18" s="58"/>
+      <c r="R18" s="46"/>
+    </row>
+    <row r="19" spans="1:18" ht="38.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="56">
         <v>1.2</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1690,10 +1714,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="12" t="str">
@@ -1716,25 +1740,25 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="49"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="51">
-      <c r="A20" s="49"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="59"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="12" t="str">
@@ -1757,12 +1781,12 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="49"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="15.75">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="59"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1792,12 +1816,12 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="49"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="59"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1827,12 +1851,12 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="49"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="49"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="59"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1862,12 +1886,12 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="49"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" ht="15.75">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="59"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1897,12 +1921,12 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="49"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="59"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1932,12 +1956,12 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="49"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="46"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="59"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1967,12 +1991,12 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="49"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="46"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="59"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2002,12 +2026,12 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="49"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="46"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="49"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="59"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2037,12 +2061,12 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="49"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="46"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="59"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2072,12 +2096,12 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="49"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="46"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
-      <c r="A30" s="49"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="59"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2107,12 +2131,12 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="49"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="46"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="59"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2142,12 +2166,12 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="49"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="46"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="59"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2177,12 +2201,12 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="49"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="46"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="49"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="59"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2212,18 +2236,18 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="49"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="46"/>
     </row>
     <row r="34" spans="1:18" ht="51">
-      <c r="A34" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="51">
+      <c r="A34" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="56">
         <v>2.1</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>20</v>
+      <c r="C34" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2233,10 +2257,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="12" t="str">
@@ -2259,24 +2283,20 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="49"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="46"/>
     </row>
     <row r="35" spans="1:18" ht="15.75">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="5"/>
       <c r="I35" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2285,26 +2305,26 @@
       <c r="J35" s="12"/>
       <c r="K35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="49"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="46"/>
     </row>
     <row r="36" spans="1:18" ht="15.75">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2333,13 +2353,13 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="49"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="46"/>
     </row>
     <row r="37" spans="1:18" ht="15.75">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2368,13 +2388,13 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="49"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="46"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2403,13 +2423,13 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="49"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="46"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2438,13 +2458,13 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="49"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="46"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2473,13 +2493,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="49"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="46"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2508,13 +2528,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="49"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="46"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2543,13 +2563,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="49"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="46"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2578,13 +2598,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="49"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="46"/>
     </row>
     <row r="44" spans="1:18" ht="15.75">
-      <c r="A44" s="49"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2613,13 +2633,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="49"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="46"/>
     </row>
     <row r="45" spans="1:18" ht="15.75">
-      <c r="A45" s="49"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2648,13 +2668,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="49"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="46"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="49"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2683,13 +2703,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="49"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="46"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="49"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2718,13 +2738,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="49"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="46"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="49"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2753,29 +2773,29 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="49"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="46"/>
     </row>
     <row r="49" spans="1:18" ht="63" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="51">
+      <c r="A49" s="46"/>
+      <c r="B49" s="56">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="58" t="s">
-        <v>21</v>
+      <c r="C49" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="12" t="str">
@@ -2798,25 +2818,25 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="49"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="46"/>
     </row>
     <row r="50" spans="1:18" ht="52.5" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="12" t="str">
@@ -2839,20 +2859,26 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="49"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="46"/>
     </row>
     <row r="51" spans="1:18" ht="41.25" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2865,22 +2891,22 @@
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="49"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="46"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="49"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2909,13 +2935,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="49"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="46"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="49"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2944,13 +2970,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="49"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="46"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
-      <c r="A54" s="49"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2979,13 +3005,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="49"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="46"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="49"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3014,13 +3040,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="49"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="46"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="49"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3049,13 +3075,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="49"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="46"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" s="49"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3084,13 +3110,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="49"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="46"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="49"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3119,13 +3145,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="49"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="46"/>
     </row>
     <row r="59" spans="1:18" ht="15.75">
-      <c r="A59" s="49"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3154,13 +3180,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="49"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="46"/>
     </row>
     <row r="60" spans="1:18" ht="15.75">
-      <c r="A60" s="49"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3189,13 +3215,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="49"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="46"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
-      <c r="A61" s="49"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3224,13 +3250,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="49"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="46"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="49"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="58"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3259,13 +3285,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="49"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="46"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="58"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3294,16 +3320,16 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="49"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="46"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="51">
+      <c r="A64" s="46"/>
+      <c r="B64" s="56">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="58" t="s">
-        <v>23</v>
+      <c r="C64" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3313,10 +3339,10 @@
         <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="12" t="str">
@@ -3339,13 +3365,13 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="49"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="46"/>
     </row>
     <row r="65" spans="1:18" ht="81.75" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="58"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3354,10 +3380,10 @@
         <v>14</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="12" t="str">
@@ -3380,13 +3406,13 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="49"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="46"/>
     </row>
     <row r="66" spans="1:18" ht="73.5" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="58"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3415,13 +3441,13 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="49"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="46"/>
     </row>
     <row r="67" spans="1:18" ht="15.75">
-      <c r="A67" s="49"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3450,13 +3476,13 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="49"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="46"/>
     </row>
     <row r="68" spans="1:18" ht="15.75">
-      <c r="A68" s="49"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3485,13 +3511,13 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="49"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="46"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
-      <c r="A69" s="49"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="5" t="str">
         <f t="shared" ref="D69:D132" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3520,13 +3546,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="49"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="46"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
-      <c r="A70" s="49"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="58"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3555,13 +3581,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="49"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="46"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
-      <c r="A71" s="49"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3590,13 +3616,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="49"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="46"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
-      <c r="A72" s="49"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="58"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3625,13 +3651,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="49"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="46"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
-      <c r="A73" s="49"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="58"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3660,13 +3686,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="49"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="46"/>
     </row>
     <row r="74" spans="1:18" ht="15.75">
-      <c r="A74" s="49"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3695,13 +3721,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="49"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="46"/>
     </row>
     <row r="75" spans="1:18" ht="15.75">
-      <c r="A75" s="49"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3730,13 +3756,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="49"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="46"/>
     </row>
     <row r="76" spans="1:18" ht="15.75">
-      <c r="A76" s="49"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3765,13 +3791,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="49"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="46"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
-      <c r="A77" s="49"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3800,13 +3826,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="49"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="46"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
-      <c r="A78" s="49"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3835,16 +3861,16 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="49"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="46"/>
     </row>
     <row r="79" spans="1:18" ht="53.25" customHeight="1">
-      <c r="A79" s="49"/>
-      <c r="B79" s="51">
+      <c r="A79" s="46"/>
+      <c r="B79" s="56">
         <v>2.4</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="4"/>
@@ -3854,10 +3880,10 @@
         <v>14</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="12" t="str">
@@ -3880,12 +3906,12 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="49"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="46"/>
     </row>
     <row r="80" spans="1:18" ht="51">
-      <c r="A80" s="49"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="59"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="4"/>
@@ -3895,10 +3921,10 @@
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="12" t="str">
@@ -3921,12 +3947,12 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="49"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="46"/>
     </row>
     <row r="81" spans="1:18" ht="15.75">
-      <c r="A81" s="49"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="59"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="4"/>
@@ -3956,12 +3982,12 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="49"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="46"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
-      <c r="A82" s="49"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="59"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="4"/>
@@ -3991,12 +4017,12 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="49"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="46"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
-      <c r="A83" s="49"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="59"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4026,12 +4052,12 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="49"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="46"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
-      <c r="A84" s="49"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="59"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4061,12 +4087,12 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="49"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="46"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
-      <c r="A85" s="49"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="59"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4096,12 +4122,12 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="49"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="46"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
-      <c r="A86" s="49"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="59"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4131,12 +4157,12 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="49"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="46"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
-      <c r="A87" s="49"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="59"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4166,12 +4192,12 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="49"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="46"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
-      <c r="A88" s="49"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="59"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4201,12 +4227,12 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="49"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="46"/>
     </row>
     <row r="89" spans="1:18" ht="15.75">
-      <c r="A89" s="49"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="59"/>
       <c r="D89" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4236,12 +4262,12 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="49"/>
+      <c r="Q89" s="57"/>
+      <c r="R89" s="46"/>
     </row>
     <row r="90" spans="1:18" ht="15.75">
-      <c r="A90" s="49"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="59"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4271,12 +4297,12 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="49"/>
+      <c r="Q90" s="57"/>
+      <c r="R90" s="46"/>
     </row>
     <row r="91" spans="1:18" ht="15.75">
-      <c r="A91" s="49"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="59"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4306,12 +4332,12 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="49"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="46"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
-      <c r="A92" s="49"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="59"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4341,12 +4367,12 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="49"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="46"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
-      <c r="A93" s="49"/>
-      <c r="B93" s="53"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="59"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4376,16 +4402,16 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="49"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="46"/>
     </row>
     <row r="94" spans="1:18" ht="84" customHeight="1">
-      <c r="A94" s="49"/>
-      <c r="B94" s="54">
+      <c r="A94" s="46"/>
+      <c r="B94" s="52">
         <v>2.5</v>
       </c>
       <c r="C94" s="59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4395,10 +4421,10 @@
         <v>14</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="12" t="str">
@@ -4421,12 +4447,12 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="54"/>
-      <c r="R94" s="50"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="47"/>
     </row>
     <row r="95" spans="1:18" ht="25.5">
-      <c r="A95" s="49"/>
-      <c r="B95" s="55"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="59"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4436,10 +4462,10 @@
         <v>14</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="12" t="str">
@@ -4462,12 +4488,12 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="50"/>
+      <c r="Q95" s="53"/>
+      <c r="R95" s="47"/>
     </row>
     <row r="96" spans="1:18" ht="75" customHeight="1">
-      <c r="A96" s="49"/>
-      <c r="B96" s="55"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="59"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4497,12 +4523,12 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="50"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="47"/>
     </row>
     <row r="97" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A97" s="49"/>
-      <c r="B97" s="55"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="59"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4532,12 +4558,12 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="50"/>
+      <c r="Q97" s="53"/>
+      <c r="R97" s="47"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
-      <c r="A98" s="49"/>
-      <c r="B98" s="55"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="59"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4567,12 +4593,12 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="50"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="47"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
-      <c r="A99" s="49"/>
-      <c r="B99" s="55"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="59"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4602,12 +4628,12 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="55"/>
-      <c r="R99" s="50"/>
+      <c r="Q99" s="53"/>
+      <c r="R99" s="47"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
-      <c r="A100" s="49"/>
-      <c r="B100" s="55"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="59"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4637,12 +4663,12 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="50"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="47"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
-      <c r="A101" s="49"/>
-      <c r="B101" s="55"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="59"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4672,12 +4698,12 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="50"/>
+      <c r="Q101" s="53"/>
+      <c r="R101" s="47"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
-      <c r="A102" s="49"/>
-      <c r="B102" s="55"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="59"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4707,12 +4733,12 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="55"/>
-      <c r="R102" s="50"/>
+      <c r="Q102" s="53"/>
+      <c r="R102" s="47"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
-      <c r="A103" s="49"/>
-      <c r="B103" s="55"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="59"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4742,12 +4768,12 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="55"/>
-      <c r="R103" s="50"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="47"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
-      <c r="A104" s="49"/>
-      <c r="B104" s="55"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="59"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4777,12 +4803,12 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="55"/>
-      <c r="R104" s="50"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="47"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
-      <c r="A105" s="49"/>
-      <c r="B105" s="55"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="59"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4812,12 +4838,12 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="55"/>
-      <c r="R105" s="50"/>
+      <c r="Q105" s="53"/>
+      <c r="R105" s="47"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
-      <c r="A106" s="49"/>
-      <c r="B106" s="55"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="59"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4847,12 +4873,12 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="55"/>
-      <c r="R106" s="50"/>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="47"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
-      <c r="A107" s="49"/>
-      <c r="B107" s="55"/>
+      <c r="A107" s="46"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="59"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4882,12 +4908,12 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="50"/>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="47"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
-      <c r="A108" s="49"/>
-      <c r="B108" s="56"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="59"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4917,29 +4943,29 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="50"/>
+      <c r="Q108" s="54"/>
+      <c r="R108" s="47"/>
     </row>
     <row r="109" spans="1:18" ht="63.75" customHeight="1">
-      <c r="A109" s="49"/>
-      <c r="B109" s="54">
+      <c r="A109" s="46"/>
+      <c r="B109" s="52">
         <v>2.6</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="12" t="str">
@@ -4962,25 +4988,25 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="54"/>
-      <c r="R109" s="50"/>
+      <c r="Q109" s="52"/>
+      <c r="R109" s="47"/>
     </row>
     <row r="110" spans="1:18" ht="92.25" customHeight="1">
-      <c r="A110" s="49"/>
-      <c r="B110" s="55"/>
+      <c r="A110" s="46"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="59"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="12" t="str">
@@ -5003,12 +5029,12 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="55"/>
-      <c r="R110" s="50"/>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="47"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
-      <c r="A111" s="49"/>
-      <c r="B111" s="55"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="59"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5038,12 +5064,12 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="55"/>
-      <c r="R111" s="50"/>
+      <c r="Q111" s="53"/>
+      <c r="R111" s="47"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
-      <c r="A112" s="49"/>
-      <c r="B112" s="55"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="59"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5073,12 +5099,12 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="55"/>
-      <c r="R112" s="50"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="47"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
-      <c r="A113" s="49"/>
-      <c r="B113" s="55"/>
+      <c r="A113" s="46"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="59"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5108,12 +5134,12 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="55"/>
-      <c r="R113" s="50"/>
+      <c r="Q113" s="53"/>
+      <c r="R113" s="47"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
-      <c r="A114" s="49"/>
-      <c r="B114" s="55"/>
+      <c r="A114" s="46"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="59"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5143,12 +5169,12 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="55"/>
-      <c r="R114" s="50"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="47"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
-      <c r="A115" s="49"/>
-      <c r="B115" s="55"/>
+      <c r="A115" s="46"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="59"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5178,12 +5204,12 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="55"/>
-      <c r="R115" s="50"/>
+      <c r="Q115" s="53"/>
+      <c r="R115" s="47"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
-      <c r="A116" s="49"/>
-      <c r="B116" s="55"/>
+      <c r="A116" s="46"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="59"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5213,12 +5239,12 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="55"/>
-      <c r="R116" s="50"/>
+      <c r="Q116" s="53"/>
+      <c r="R116" s="47"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
-      <c r="A117" s="49"/>
-      <c r="B117" s="55"/>
+      <c r="A117" s="46"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="59"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5248,12 +5274,12 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="55"/>
-      <c r="R117" s="50"/>
+      <c r="Q117" s="53"/>
+      <c r="R117" s="47"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
-      <c r="A118" s="49"/>
-      <c r="B118" s="55"/>
+      <c r="A118" s="46"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="59"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5283,12 +5309,12 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="55"/>
-      <c r="R118" s="50"/>
+      <c r="Q118" s="53"/>
+      <c r="R118" s="47"/>
     </row>
     <row r="119" spans="1:18" ht="15.75">
-      <c r="A119" s="49"/>
-      <c r="B119" s="55"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="59"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5318,12 +5344,12 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="55"/>
-      <c r="R119" s="50"/>
+      <c r="Q119" s="53"/>
+      <c r="R119" s="47"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
-      <c r="A120" s="49"/>
-      <c r="B120" s="55"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="59"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5353,12 +5379,12 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="55"/>
-      <c r="R120" s="50"/>
+      <c r="Q120" s="53"/>
+      <c r="R120" s="47"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
-      <c r="A121" s="49"/>
-      <c r="B121" s="55"/>
+      <c r="A121" s="46"/>
+      <c r="B121" s="53"/>
       <c r="C121" s="59"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5388,12 +5414,12 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="50"/>
+      <c r="Q121" s="53"/>
+      <c r="R121" s="47"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
-      <c r="A122" s="49"/>
-      <c r="B122" s="55"/>
+      <c r="A122" s="46"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="59"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5423,12 +5449,12 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="55"/>
-      <c r="R122" s="50"/>
+      <c r="Q122" s="53"/>
+      <c r="R122" s="47"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
-      <c r="A123" s="49"/>
-      <c r="B123" s="56"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="59"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5458,16 +5484,16 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="56"/>
-      <c r="R123" s="50"/>
+      <c r="Q123" s="54"/>
+      <c r="R123" s="47"/>
     </row>
     <row r="124" spans="1:18" ht="81.75" customHeight="1">
-      <c r="A124" s="49"/>
-      <c r="B124" s="54">
+      <c r="A124" s="46"/>
+      <c r="B124" s="52">
         <v>2.7</v>
       </c>
       <c r="C124" s="59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5477,10 +5503,10 @@
         <v>14</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="12" t="str">
@@ -5503,12 +5529,12 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="54"/>
-      <c r="R124" s="50"/>
+      <c r="Q124" s="52"/>
+      <c r="R124" s="47"/>
     </row>
     <row r="125" spans="1:18" ht="15.75">
-      <c r="A125" s="49"/>
-      <c r="B125" s="55"/>
+      <c r="A125" s="46"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="59"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5538,12 +5564,12 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="55"/>
-      <c r="R125" s="50"/>
+      <c r="Q125" s="53"/>
+      <c r="R125" s="47"/>
     </row>
     <row r="126" spans="1:18" ht="15.75">
-      <c r="A126" s="49"/>
-      <c r="B126" s="55"/>
+      <c r="A126" s="46"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="59"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5573,12 +5599,12 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="55"/>
-      <c r="R126" s="50"/>
+      <c r="Q126" s="53"/>
+      <c r="R126" s="47"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
-      <c r="A127" s="49"/>
-      <c r="B127" s="55"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="59"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5608,12 +5634,12 @@
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="55"/>
-      <c r="R127" s="50"/>
+      <c r="Q127" s="53"/>
+      <c r="R127" s="47"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
-      <c r="A128" s="49"/>
-      <c r="B128" s="55"/>
+      <c r="A128" s="46"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="59"/>
       <c r="D128" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5643,12 +5669,12 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="55"/>
-      <c r="R128" s="50"/>
+      <c r="Q128" s="53"/>
+      <c r="R128" s="47"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
-      <c r="A129" s="49"/>
-      <c r="B129" s="55"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="59"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5678,12 +5704,12 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="55"/>
-      <c r="R129" s="50"/>
+      <c r="Q129" s="53"/>
+      <c r="R129" s="47"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
-      <c r="A130" s="49"/>
-      <c r="B130" s="55"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="59"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5713,12 +5739,12 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="55"/>
-      <c r="R130" s="50"/>
+      <c r="Q130" s="53"/>
+      <c r="R130" s="47"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
-      <c r="A131" s="49"/>
-      <c r="B131" s="55"/>
+      <c r="A131" s="46"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="59"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5748,12 +5774,12 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="55"/>
-      <c r="R131" s="50"/>
+      <c r="Q131" s="53"/>
+      <c r="R131" s="47"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
-      <c r="A132" s="49"/>
-      <c r="B132" s="55"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="59"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5783,12 +5809,12 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="55"/>
-      <c r="R132" s="50"/>
+      <c r="Q132" s="53"/>
+      <c r="R132" s="47"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
-      <c r="A133" s="49"/>
-      <c r="B133" s="55"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="59"/>
       <c r="D133" s="5" t="str">
         <f t="shared" ref="D133:D196" si="7">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
@@ -5818,12 +5844,12 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="55"/>
-      <c r="R133" s="50"/>
+      <c r="Q133" s="53"/>
+      <c r="R133" s="47"/>
     </row>
     <row r="134" spans="1:18" ht="15.75">
-      <c r="A134" s="49"/>
-      <c r="B134" s="55"/>
+      <c r="A134" s="46"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="59"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5853,12 +5879,12 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="50"/>
+      <c r="Q134" s="53"/>
+      <c r="R134" s="47"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
-      <c r="A135" s="49"/>
-      <c r="B135" s="55"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="59"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5888,12 +5914,12 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="55"/>
-      <c r="R135" s="50"/>
+      <c r="Q135" s="53"/>
+      <c r="R135" s="47"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
-      <c r="A136" s="49"/>
-      <c r="B136" s="55"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="59"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5923,12 +5949,12 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="55"/>
-      <c r="R136" s="50"/>
+      <c r="Q136" s="53"/>
+      <c r="R136" s="47"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
-      <c r="A137" s="49"/>
-      <c r="B137" s="55"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="53"/>
       <c r="C137" s="59"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5958,12 +5984,12 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="55"/>
-      <c r="R137" s="50"/>
+      <c r="Q137" s="53"/>
+      <c r="R137" s="47"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
-      <c r="A138" s="49"/>
-      <c r="B138" s="56"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="54"/>
       <c r="C138" s="59"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5993,16 +6019,16 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="56"/>
-      <c r="R138" s="50"/>
+      <c r="Q138" s="54"/>
+      <c r="R138" s="47"/>
     </row>
     <row r="139" spans="1:18" ht="15.75">
-      <c r="A139" s="49"/>
-      <c r="B139" s="54">
+      <c r="A139" s="46"/>
+      <c r="B139" s="52">
         <v>2.8</v>
       </c>
       <c r="C139" s="59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6032,25 +6058,25 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="54"/>
-      <c r="R139" s="50"/>
+      <c r="Q139" s="52"/>
+      <c r="R139" s="47"/>
     </row>
     <row r="140" spans="1:18" ht="25.5">
-      <c r="A140" s="49"/>
-      <c r="B140" s="55"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="59"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="12" t="str">
@@ -6073,19 +6099,23 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="55"/>
-      <c r="R140" s="50"/>
-    </row>
-    <row r="141" spans="1:18" ht="15.75">
-      <c r="A141" s="49"/>
-      <c r="B141" s="55"/>
+      <c r="Q140" s="53"/>
+      <c r="R140" s="47"/>
+    </row>
+    <row r="141" spans="1:18" ht="51">
+      <c r="A141" s="46"/>
+      <c r="B141" s="53"/>
       <c r="C141" s="59"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="7"/>
+        <v>OK</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G141" s="10"/>
       <c r="H141" s="8"/>
       <c r="I141" s="12" t="str">
@@ -6095,25 +6125,25 @@
       <c r="J141" s="12"/>
       <c r="K141" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L141" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M141" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="55"/>
-      <c r="R141" s="50"/>
+      <c r="Q141" s="53"/>
+      <c r="R141" s="47"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
-      <c r="A142" s="49"/>
-      <c r="B142" s="55"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="59"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6143,12 +6173,12 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="55"/>
-      <c r="R142" s="50"/>
+      <c r="Q142" s="53"/>
+      <c r="R142" s="47"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
-      <c r="A143" s="49"/>
-      <c r="B143" s="55"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="59"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6178,12 +6208,12 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="55"/>
-      <c r="R143" s="50"/>
+      <c r="Q143" s="53"/>
+      <c r="R143" s="47"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
-      <c r="A144" s="49"/>
-      <c r="B144" s="55"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="59"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6213,12 +6243,12 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="55"/>
-      <c r="R144" s="50"/>
+      <c r="Q144" s="53"/>
+      <c r="R144" s="47"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
-      <c r="A145" s="49"/>
-      <c r="B145" s="55"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="59"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6248,12 +6278,12 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="55"/>
-      <c r="R145" s="50"/>
+      <c r="Q145" s="53"/>
+      <c r="R145" s="47"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
-      <c r="A146" s="49"/>
-      <c r="B146" s="55"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="59"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6283,12 +6313,12 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="50"/>
+      <c r="Q146" s="53"/>
+      <c r="R146" s="47"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
-      <c r="A147" s="49"/>
-      <c r="B147" s="55"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="59"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6318,12 +6348,12 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="55"/>
-      <c r="R147" s="50"/>
+      <c r="Q147" s="53"/>
+      <c r="R147" s="47"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
-      <c r="A148" s="49"/>
-      <c r="B148" s="55"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="53"/>
       <c r="C148" s="59"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6353,12 +6383,12 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="55"/>
-      <c r="R148" s="50"/>
+      <c r="Q148" s="53"/>
+      <c r="R148" s="47"/>
     </row>
     <row r="149" spans="1:18" ht="15.75">
-      <c r="A149" s="49"/>
-      <c r="B149" s="55"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="59"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6388,12 +6418,12 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="50"/>
+      <c r="Q149" s="53"/>
+      <c r="R149" s="47"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
-      <c r="A150" s="49"/>
-      <c r="B150" s="55"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="53"/>
       <c r="C150" s="59"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6423,12 +6453,12 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="50"/>
+      <c r="Q150" s="53"/>
+      <c r="R150" s="47"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
-      <c r="A151" s="49"/>
-      <c r="B151" s="55"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="53"/>
       <c r="C151" s="59"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6458,12 +6488,12 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="50"/>
+      <c r="Q151" s="53"/>
+      <c r="R151" s="47"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
-      <c r="A152" s="49"/>
-      <c r="B152" s="55"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="53"/>
       <c r="C152" s="59"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6493,12 +6523,12 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="50"/>
+      <c r="Q152" s="53"/>
+      <c r="R152" s="47"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
-      <c r="A153" s="49"/>
-      <c r="B153" s="56"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="54"/>
       <c r="C153" s="59"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6528,18 +6558,18 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="56"/>
-      <c r="R153" s="50"/>
+      <c r="Q153" s="54"/>
+      <c r="R153" s="47"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1">
-      <c r="A154" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="54">
+      <c r="A154" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="52">
         <v>3.1</v>
       </c>
       <c r="C154" s="59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D154" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6549,10 +6579,10 @@
         <v>14</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="12" t="str">
@@ -6575,12 +6605,12 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="54"/>
-      <c r="R154" s="50"/>
+      <c r="Q154" s="52"/>
+      <c r="R154" s="47"/>
     </row>
     <row r="155" spans="1:18" ht="15.75">
-      <c r="A155" s="50"/>
-      <c r="B155" s="55"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="53"/>
       <c r="C155" s="59"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6589,7 +6619,7 @@
       <c r="E155" s="6"/>
       <c r="F155" s="13"/>
       <c r="G155" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="12" t="str">
@@ -6612,12 +6642,12 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="50"/>
+      <c r="Q155" s="53"/>
+      <c r="R155" s="47"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
-      <c r="A156" s="50"/>
-      <c r="B156" s="55"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="53"/>
       <c r="C156" s="59"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6626,7 +6656,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="15"/>
       <c r="G156" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="12" t="str">
@@ -6649,12 +6679,12 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="50"/>
+      <c r="Q156" s="53"/>
+      <c r="R156" s="47"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
-      <c r="A157" s="50"/>
-      <c r="B157" s="55"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="53"/>
       <c r="C157" s="59"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6663,7 +6693,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="15"/>
       <c r="G157" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="12" t="str">
@@ -6686,12 +6716,12 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="55"/>
-      <c r="R157" s="50"/>
+      <c r="Q157" s="53"/>
+      <c r="R157" s="47"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
-      <c r="A158" s="50"/>
-      <c r="B158" s="55"/>
+      <c r="A158" s="47"/>
+      <c r="B158" s="53"/>
       <c r="C158" s="59"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6721,12 +6751,12 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="55"/>
-      <c r="R158" s="50"/>
+      <c r="Q158" s="53"/>
+      <c r="R158" s="47"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
-      <c r="A159" s="50"/>
-      <c r="B159" s="55"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="53"/>
       <c r="C159" s="59"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6756,12 +6786,12 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="55"/>
-      <c r="R159" s="50"/>
+      <c r="Q159" s="53"/>
+      <c r="R159" s="47"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
-      <c r="A160" s="50"/>
-      <c r="B160" s="55"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="53"/>
       <c r="C160" s="59"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6791,12 +6821,12 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="55"/>
-      <c r="R160" s="50"/>
+      <c r="Q160" s="53"/>
+      <c r="R160" s="47"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
-      <c r="A161" s="50"/>
-      <c r="B161" s="55"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="53"/>
       <c r="C161" s="59"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6826,12 +6856,12 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="55"/>
-      <c r="R161" s="50"/>
+      <c r="Q161" s="53"/>
+      <c r="R161" s="47"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
-      <c r="A162" s="50"/>
-      <c r="B162" s="55"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="53"/>
       <c r="C162" s="59"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6861,12 +6891,12 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="55"/>
-      <c r="R162" s="50"/>
+      <c r="Q162" s="53"/>
+      <c r="R162" s="47"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
-      <c r="A163" s="50"/>
-      <c r="B163" s="55"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="53"/>
       <c r="C163" s="59"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6896,12 +6926,12 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="55"/>
-      <c r="R163" s="50"/>
+      <c r="Q163" s="53"/>
+      <c r="R163" s="47"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
-      <c r="A164" s="50"/>
-      <c r="B164" s="55"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="59"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6931,12 +6961,12 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="55"/>
-      <c r="R164" s="50"/>
+      <c r="Q164" s="53"/>
+      <c r="R164" s="47"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
-      <c r="A165" s="50"/>
-      <c r="B165" s="55"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="59"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6966,12 +6996,12 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="55"/>
-      <c r="R165" s="50"/>
+      <c r="Q165" s="53"/>
+      <c r="R165" s="47"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
-      <c r="A166" s="50"/>
-      <c r="B166" s="55"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="59"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7001,12 +7031,12 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="55"/>
-      <c r="R166" s="50"/>
+      <c r="Q166" s="53"/>
+      <c r="R166" s="47"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
-      <c r="A167" s="50"/>
-      <c r="B167" s="55"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="59"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7036,12 +7066,12 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="50"/>
+      <c r="Q167" s="53"/>
+      <c r="R167" s="47"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
-      <c r="A168" s="50"/>
-      <c r="B168" s="56"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="54"/>
       <c r="C168" s="59"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7071,29 +7101,29 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="56"/>
-      <c r="R168" s="50"/>
+      <c r="Q168" s="54"/>
+      <c r="R168" s="47"/>
     </row>
     <row r="169" spans="1:18" ht="51">
-      <c r="A169" s="50"/>
-      <c r="B169" s="54">
+      <c r="A169" s="47"/>
+      <c r="B169" s="52">
         <v>3.2</v>
       </c>
       <c r="C169" s="59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D169" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="12" t="str">
@@ -7116,12 +7146,12 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="54"/>
-      <c r="R169" s="50"/>
+      <c r="Q169" s="52"/>
+      <c r="R169" s="47"/>
     </row>
     <row r="170" spans="1:18" ht="15.75">
-      <c r="A170" s="50"/>
-      <c r="B170" s="55"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="53"/>
       <c r="C170" s="59"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7132,7 +7162,7 @@
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="12" t="str">
@@ -7155,12 +7185,12 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="50"/>
+      <c r="Q170" s="53"/>
+      <c r="R170" s="47"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
-      <c r="A171" s="50"/>
-      <c r="B171" s="55"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="53"/>
       <c r="C171" s="59"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7190,12 +7220,12 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="55"/>
-      <c r="R171" s="50"/>
+      <c r="Q171" s="53"/>
+      <c r="R171" s="47"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
-      <c r="A172" s="50"/>
-      <c r="B172" s="55"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="53"/>
       <c r="C172" s="59"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7225,12 +7255,12 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="55"/>
-      <c r="R172" s="50"/>
+      <c r="Q172" s="53"/>
+      <c r="R172" s="47"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
-      <c r="A173" s="50"/>
-      <c r="B173" s="55"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="53"/>
       <c r="C173" s="59"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7260,12 +7290,12 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="50"/>
+      <c r="Q173" s="53"/>
+      <c r="R173" s="47"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A174" s="50"/>
-      <c r="B174" s="55"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="53"/>
       <c r="C174" s="59"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7295,12 +7325,12 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="55"/>
-      <c r="R174" s="50"/>
+      <c r="Q174" s="53"/>
+      <c r="R174" s="47"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A175" s="50"/>
-      <c r="B175" s="55"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="53"/>
       <c r="C175" s="59"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7330,12 +7360,12 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="55"/>
-      <c r="R175" s="50"/>
+      <c r="Q175" s="53"/>
+      <c r="R175" s="47"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
-      <c r="A176" s="50"/>
-      <c r="B176" s="55"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="53"/>
       <c r="C176" s="59"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7365,12 +7395,12 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="50"/>
+      <c r="Q176" s="53"/>
+      <c r="R176" s="47"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
-      <c r="A177" s="50"/>
-      <c r="B177" s="55"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="53"/>
       <c r="C177" s="59"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7400,12 +7430,12 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="50"/>
+      <c r="Q177" s="53"/>
+      <c r="R177" s="47"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
-      <c r="A178" s="50"/>
-      <c r="B178" s="55"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="53"/>
       <c r="C178" s="59"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7435,12 +7465,12 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="55"/>
-      <c r="R178" s="50"/>
+      <c r="Q178" s="53"/>
+      <c r="R178" s="47"/>
     </row>
     <row r="179" spans="1:18" ht="15.75">
-      <c r="A179" s="50"/>
-      <c r="B179" s="55"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="53"/>
       <c r="C179" s="59"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7470,12 +7500,12 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="50"/>
+      <c r="Q179" s="53"/>
+      <c r="R179" s="47"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
-      <c r="A180" s="50"/>
-      <c r="B180" s="55"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="53"/>
       <c r="C180" s="59"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7505,12 +7535,12 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="55"/>
-      <c r="R180" s="50"/>
+      <c r="Q180" s="53"/>
+      <c r="R180" s="47"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
-      <c r="A181" s="50"/>
-      <c r="B181" s="55"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="59"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7540,12 +7570,12 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="55"/>
-      <c r="R181" s="50"/>
+      <c r="Q181" s="53"/>
+      <c r="R181" s="47"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
-      <c r="A182" s="50"/>
-      <c r="B182" s="55"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="59"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7575,12 +7605,12 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="55"/>
-      <c r="R182" s="50"/>
+      <c r="Q182" s="53"/>
+      <c r="R182" s="47"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
-      <c r="A183" s="50"/>
-      <c r="B183" s="56"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="54"/>
       <c r="C183" s="59"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7610,16 +7640,16 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="56"/>
-      <c r="R183" s="50"/>
+      <c r="Q183" s="54"/>
+      <c r="R183" s="47"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A184" s="50"/>
-      <c r="B184" s="54">
+      <c r="A184" s="47"/>
+      <c r="B184" s="52">
         <v>3.3</v>
       </c>
       <c r="C184" s="59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D184" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7629,10 +7659,10 @@
         <v>14</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="12" t="str">
@@ -7655,25 +7685,25 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="54"/>
-      <c r="R184" s="50"/>
+      <c r="Q184" s="52"/>
+      <c r="R184" s="47"/>
     </row>
     <row r="185" spans="1:18" ht="25.5">
-      <c r="A185" s="50"/>
-      <c r="B185" s="55"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="59"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="12" t="str">
@@ -7696,12 +7726,12 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="55"/>
-      <c r="R185" s="50"/>
+      <c r="Q185" s="53"/>
+      <c r="R185" s="47"/>
     </row>
     <row r="186" spans="1:18" ht="15.75">
-      <c r="A186" s="50"/>
-      <c r="B186" s="55"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="59"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7710,7 +7740,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="7"/>
       <c r="G186" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="12" t="str">
@@ -7733,12 +7763,12 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="55"/>
-      <c r="R186" s="50"/>
+      <c r="Q186" s="53"/>
+      <c r="R186" s="47"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
-      <c r="A187" s="50"/>
-      <c r="B187" s="55"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="59"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7768,12 +7798,12 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="55"/>
-      <c r="R187" s="50"/>
+      <c r="Q187" s="53"/>
+      <c r="R187" s="47"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
-      <c r="A188" s="50"/>
-      <c r="B188" s="55"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="59"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7803,12 +7833,12 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="55"/>
-      <c r="R188" s="50"/>
+      <c r="Q188" s="53"/>
+      <c r="R188" s="47"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
-      <c r="A189" s="50"/>
-      <c r="B189" s="55"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="59"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7838,12 +7868,12 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="55"/>
-      <c r="R189" s="50"/>
+      <c r="Q189" s="53"/>
+      <c r="R189" s="47"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
-      <c r="A190" s="50"/>
-      <c r="B190" s="55"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="53"/>
       <c r="C190" s="59"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7873,12 +7903,12 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="55"/>
-      <c r="R190" s="50"/>
+      <c r="Q190" s="53"/>
+      <c r="R190" s="47"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A191" s="50"/>
-      <c r="B191" s="55"/>
+      <c r="A191" s="47"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="59"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7908,12 +7938,12 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="55"/>
-      <c r="R191" s="50"/>
+      <c r="Q191" s="53"/>
+      <c r="R191" s="47"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
-      <c r="A192" s="50"/>
-      <c r="B192" s="55"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="59"/>
       <c r="D192" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7943,12 +7973,12 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="55"/>
-      <c r="R192" s="50"/>
+      <c r="Q192" s="53"/>
+      <c r="R192" s="47"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
-      <c r="A193" s="50"/>
-      <c r="B193" s="55"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="59"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7978,12 +8008,12 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="50"/>
+      <c r="Q193" s="53"/>
+      <c r="R193" s="47"/>
     </row>
     <row r="194" spans="1:18" ht="15.75">
-      <c r="A194" s="50"/>
-      <c r="B194" s="55"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="59"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8013,12 +8043,12 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="50"/>
+      <c r="Q194" s="53"/>
+      <c r="R194" s="47"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
-      <c r="A195" s="50"/>
-      <c r="B195" s="55"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="53"/>
       <c r="C195" s="59"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8048,12 +8078,12 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="50"/>
+      <c r="Q195" s="53"/>
+      <c r="R195" s="47"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
-      <c r="A196" s="50"/>
-      <c r="B196" s="55"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="59"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8083,12 +8113,12 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="50"/>
+      <c r="Q196" s="53"/>
+      <c r="R196" s="47"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
-      <c r="A197" s="50"/>
-      <c r="B197" s="55"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="59"/>
       <c r="D197" s="5" t="str">
         <f t="shared" ref="D197:D260" si="11">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
@@ -8118,12 +8148,12 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="50"/>
+      <c r="Q197" s="53"/>
+      <c r="R197" s="47"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
-      <c r="A198" s="50"/>
-      <c r="B198" s="56"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="54"/>
       <c r="C198" s="59"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8153,29 +8183,29 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="56"/>
-      <c r="R198" s="50"/>
-    </row>
-    <row r="199" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A199" s="50"/>
-      <c r="B199" s="54">
+      <c r="Q198" s="54"/>
+      <c r="R198" s="47"/>
+    </row>
+    <row r="199" spans="1:18" ht="102">
+      <c r="A199" s="47"/>
+      <c r="B199" s="52">
         <v>3.4</v>
       </c>
       <c r="C199" s="59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D199" s="5" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="12" t="str">
@@ -8198,25 +8228,25 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="50"/>
+      <c r="Q199" s="52"/>
+      <c r="R199" s="47"/>
     </row>
     <row r="200" spans="1:18" ht="60.75" customHeight="1">
-      <c r="A200" s="50"/>
-      <c r="B200" s="55"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="59"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="12" t="str">
@@ -8239,20 +8269,26 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="50"/>
-    </row>
-    <row r="201" spans="1:18" ht="15.75">
-      <c r="A201" s="50"/>
-      <c r="B201" s="55"/>
+      <c r="Q200" s="53"/>
+      <c r="R200" s="47"/>
+    </row>
+    <row r="201" spans="1:18" ht="51">
+      <c r="A201" s="47"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="59"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="E201" s="17"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="18"/>
+        <v>OK</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H201" s="5"/>
       <c r="I201" s="12" t="str">
         <f t="shared" si="12"/>
@@ -8261,33 +8297,39 @@
       <c r="J201" s="12"/>
       <c r="K201" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L201" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M201" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="50"/>
-    </row>
-    <row r="202" spans="1:18" ht="15.75">
-      <c r="A202" s="50"/>
-      <c r="B202" s="55"/>
+      <c r="Q201" s="53"/>
+      <c r="R201" s="47"/>
+    </row>
+    <row r="202" spans="1:18" ht="127.5">
+      <c r="A202" s="47"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="59"/>
-      <c r="D202" s="19" t="str">
+      <c r="D202" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="E202" s="20"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="18"/>
+        <v>OK</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H202" s="5"/>
       <c r="I202" s="12" t="str">
         <f t="shared" si="12"/>
@@ -8296,25 +8338,25 @@
       <c r="J202" s="12"/>
       <c r="K202" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L202" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M202" s="8" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="50"/>
+      <c r="Q202" s="53"/>
+      <c r="R202" s="47"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
-      <c r="A203" s="50"/>
-      <c r="B203" s="55"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="53"/>
       <c r="C203" s="59"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8344,12 +8386,12 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="50"/>
+      <c r="Q203" s="53"/>
+      <c r="R203" s="47"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
-      <c r="A204" s="50"/>
-      <c r="B204" s="55"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="53"/>
       <c r="C204" s="59"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8379,12 +8421,12 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="50"/>
+      <c r="Q204" s="53"/>
+      <c r="R204" s="47"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
-      <c r="A205" s="50"/>
-      <c r="B205" s="55"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="53"/>
       <c r="C205" s="59"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8414,12 +8456,12 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="50"/>
+      <c r="Q205" s="53"/>
+      <c r="R205" s="47"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
-      <c r="A206" s="50"/>
-      <c r="B206" s="55"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="59"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8449,12 +8491,12 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="50"/>
+      <c r="Q206" s="53"/>
+      <c r="R206" s="47"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
-      <c r="A207" s="50"/>
-      <c r="B207" s="55"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="53"/>
       <c r="C207" s="59"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8484,12 +8526,12 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="50"/>
+      <c r="Q207" s="53"/>
+      <c r="R207" s="47"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
-      <c r="A208" s="50"/>
-      <c r="B208" s="55"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="53"/>
       <c r="C208" s="59"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8519,12 +8561,12 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="50"/>
+      <c r="Q208" s="53"/>
+      <c r="R208" s="47"/>
     </row>
     <row r="209" spans="1:18" ht="15.75">
-      <c r="A209" s="50"/>
-      <c r="B209" s="55"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="53"/>
       <c r="C209" s="59"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8554,12 +8596,12 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="50"/>
+      <c r="Q209" s="53"/>
+      <c r="R209" s="47"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
-      <c r="A210" s="50"/>
-      <c r="B210" s="55"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="53"/>
       <c r="C210" s="59"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8589,12 +8631,12 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="50"/>
+      <c r="Q210" s="53"/>
+      <c r="R210" s="47"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
-      <c r="A211" s="50"/>
-      <c r="B211" s="55"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="59"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8624,12 +8666,12 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="50"/>
+      <c r="Q211" s="53"/>
+      <c r="R211" s="47"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
-      <c r="A212" s="50"/>
-      <c r="B212" s="55"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="59"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8659,12 +8701,12 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="50"/>
+      <c r="Q212" s="53"/>
+      <c r="R212" s="47"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
-      <c r="A213" s="50"/>
-      <c r="B213" s="56"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="54"/>
       <c r="C213" s="59"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8694,19 +8736,19 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="56"/>
-      <c r="R213" s="50"/>
+      <c r="Q213" s="54"/>
+      <c r="R213" s="47"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A214" s="22"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="58"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="55"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E214" s="6"/>
-      <c r="F214" s="23"/>
+      <c r="F214" s="20"/>
       <c r="G214" s="10"/>
       <c r="H214" s="8"/>
       <c r="I214" s="12" t="str">
@@ -8729,19 +8771,19 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="54"/>
-      <c r="R214" s="50"/>
+      <c r="Q214" s="52"/>
+      <c r="R214" s="47"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
-      <c r="A215" s="22"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="58"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="55"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E215" s="6"/>
-      <c r="F215" s="24"/>
+      <c r="F215" s="21"/>
       <c r="G215" s="10"/>
       <c r="H215" s="8"/>
       <c r="I215" s="12" t="str">
@@ -8764,19 +8806,19 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="50"/>
+      <c r="Q215" s="53"/>
+      <c r="R215" s="47"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
-      <c r="A216" s="22"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="58"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="55"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E216" s="6"/>
-      <c r="F216" s="23"/>
+      <c r="F216" s="20"/>
       <c r="G216" s="10"/>
       <c r="H216" s="5"/>
       <c r="I216" s="12" t="str">
@@ -8799,19 +8841,19 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="50"/>
+      <c r="Q216" s="53"/>
+      <c r="R216" s="47"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
-      <c r="A217" s="22"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="58"/>
+      <c r="A217" s="19"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="55"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E217" s="6"/>
-      <c r="F217" s="23"/>
+      <c r="F217" s="20"/>
       <c r="G217" s="10"/>
       <c r="H217" s="8"/>
       <c r="I217" s="12" t="str">
@@ -8834,19 +8876,19 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="55"/>
-      <c r="R217" s="50"/>
+      <c r="Q217" s="53"/>
+      <c r="R217" s="47"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
-      <c r="A218" s="22"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="58"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="55"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E218" s="9"/>
-      <c r="F218" s="23"/>
+      <c r="F218" s="20"/>
       <c r="G218" s="10"/>
       <c r="H218" s="8"/>
       <c r="I218" s="12" t="str">
@@ -8869,19 +8911,19 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="55"/>
-      <c r="R218" s="50"/>
+      <c r="Q218" s="53"/>
+      <c r="R218" s="47"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
-      <c r="A219" s="22"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="58"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="55"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E219" s="9"/>
-      <c r="F219" s="23"/>
+      <c r="F219" s="20"/>
       <c r="G219" s="10"/>
       <c r="H219" s="8"/>
       <c r="I219" s="12" t="str">
@@ -8904,18 +8946,18 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="50"/>
+      <c r="Q219" s="53"/>
+      <c r="R219" s="47"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
-      <c r="A220" s="22"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="58"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="55"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E220" s="25"/>
+      <c r="E220" s="22"/>
       <c r="F220" s="4"/>
       <c r="G220" s="10"/>
       <c r="H220" s="8"/>
@@ -8939,18 +8981,18 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="55"/>
-      <c r="R220" s="50"/>
+      <c r="Q220" s="53"/>
+      <c r="R220" s="47"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
-      <c r="A221" s="22"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="58"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="55"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E221" s="25"/>
+      <c r="E221" s="22"/>
       <c r="F221" s="4"/>
       <c r="G221" s="10"/>
       <c r="H221" s="8"/>
@@ -8974,18 +9016,18 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="55"/>
-      <c r="R221" s="50"/>
+      <c r="Q221" s="53"/>
+      <c r="R221" s="47"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
-      <c r="A222" s="22"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="58"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="55"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E222" s="25"/>
+      <c r="E222" s="22"/>
       <c r="F222" s="4"/>
       <c r="G222" s="10"/>
       <c r="H222" s="8"/>
@@ -9009,18 +9051,18 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="55"/>
-      <c r="R222" s="50"/>
+      <c r="Q222" s="53"/>
+      <c r="R222" s="47"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
-      <c r="A223" s="22"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="58"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="55"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E223" s="25"/>
+      <c r="E223" s="22"/>
       <c r="F223" s="4"/>
       <c r="G223" s="10"/>
       <c r="H223" s="8"/>
@@ -9044,18 +9086,18 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="55"/>
-      <c r="R223" s="50"/>
+      <c r="Q223" s="53"/>
+      <c r="R223" s="47"/>
     </row>
     <row r="224" spans="1:18" ht="15.75">
-      <c r="A224" s="22"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="58"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="55"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E224" s="25"/>
+      <c r="E224" s="22"/>
       <c r="F224" s="4"/>
       <c r="G224" s="10"/>
       <c r="H224" s="8"/>
@@ -9079,18 +9121,18 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="55"/>
-      <c r="R224" s="50"/>
+      <c r="Q224" s="53"/>
+      <c r="R224" s="47"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
-      <c r="A225" s="22"/>
-      <c r="B225" s="55"/>
-      <c r="C225" s="58"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="55"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E225" s="25"/>
+      <c r="E225" s="22"/>
       <c r="F225" s="4"/>
       <c r="G225" s="10"/>
       <c r="H225" s="8"/>
@@ -9114,18 +9156,18 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="50"/>
+      <c r="Q225" s="53"/>
+      <c r="R225" s="47"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
-      <c r="A226" s="22"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="58"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="55"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E226" s="25"/>
+      <c r="E226" s="22"/>
       <c r="F226" s="4"/>
       <c r="G226" s="10"/>
       <c r="H226" s="8"/>
@@ -9149,18 +9191,18 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="55"/>
-      <c r="R226" s="50"/>
+      <c r="Q226" s="53"/>
+      <c r="R226" s="47"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
-      <c r="A227" s="22"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="58"/>
+      <c r="A227" s="19"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="55"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E227" s="25"/>
+      <c r="E227" s="22"/>
       <c r="F227" s="4"/>
       <c r="G227" s="10"/>
       <c r="H227" s="8"/>
@@ -9184,18 +9226,18 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="55"/>
-      <c r="R227" s="50"/>
+      <c r="Q227" s="53"/>
+      <c r="R227" s="47"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
-      <c r="A228" s="22"/>
-      <c r="B228" s="56"/>
-      <c r="C228" s="58"/>
+      <c r="A228" s="19"/>
+      <c r="B228" s="54"/>
+      <c r="C228" s="55"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E228" s="25"/>
+      <c r="E228" s="22"/>
       <c r="F228" s="4"/>
       <c r="G228" s="10"/>
       <c r="H228" s="8"/>
@@ -9219,19 +9261,19 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="56"/>
-      <c r="R228" s="50"/>
+      <c r="Q228" s="54"/>
+      <c r="R228" s="47"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A229" s="22"/>
-      <c r="B229" s="54"/>
-      <c r="C229" s="58"/>
+      <c r="A229" s="19"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="55"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E229" s="26"/>
-      <c r="F229" s="27"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="24"/>
       <c r="G229" s="10"/>
       <c r="H229" s="5"/>
       <c r="I229" s="12" t="str">
@@ -9253,20 +9295,20 @@
       </c>
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
-      <c r="P229" s="35"/>
-      <c r="Q229" s="54"/>
-      <c r="R229" s="50"/>
+      <c r="P229" s="32"/>
+      <c r="Q229" s="52"/>
+      <c r="R229" s="47"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
-      <c r="A230" s="22"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="58"/>
+      <c r="A230" s="19"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="55"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E230" s="28"/>
-      <c r="F230" s="29"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="26"/>
       <c r="G230" s="10"/>
       <c r="H230" s="5"/>
       <c r="I230" s="12" t="str">
@@ -9288,20 +9330,20 @@
       </c>
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
-      <c r="P230" s="35"/>
-      <c r="Q230" s="55"/>
-      <c r="R230" s="50"/>
+      <c r="P230" s="32"/>
+      <c r="Q230" s="53"/>
+      <c r="R230" s="47"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
-      <c r="A231" s="22"/>
-      <c r="B231" s="55"/>
-      <c r="C231" s="58"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="55"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E231" s="9"/>
-      <c r="F231" s="30"/>
+      <c r="F231" s="27"/>
       <c r="G231" s="10"/>
       <c r="H231" s="8"/>
       <c r="I231" s="12" t="str">
@@ -9324,19 +9366,19 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="55"/>
-      <c r="R231" s="50"/>
+      <c r="Q231" s="53"/>
+      <c r="R231" s="47"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
-      <c r="A232" s="22"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="58"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="55"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E232" s="6"/>
-      <c r="F232" s="30"/>
+      <c r="F232" s="27"/>
       <c r="G232" s="10"/>
       <c r="H232" s="5"/>
       <c r="I232" s="12" t="str">
@@ -9359,19 +9401,19 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="55"/>
-      <c r="R232" s="50"/>
+      <c r="Q232" s="53"/>
+      <c r="R232" s="47"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
-      <c r="A233" s="22"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="58"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="55"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E233" s="31"/>
-      <c r="F233" s="30"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="27"/>
       <c r="G233" s="10"/>
       <c r="H233" s="8"/>
       <c r="I233" s="12" t="str">
@@ -9394,19 +9436,19 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="55"/>
-      <c r="R233" s="50"/>
+      <c r="Q233" s="53"/>
+      <c r="R233" s="47"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
-      <c r="A234" s="22"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="58"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="55"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E234" s="32"/>
-      <c r="F234" s="33"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="30"/>
       <c r="G234" s="10"/>
       <c r="H234" s="5"/>
       <c r="I234" s="12" t="str">
@@ -9429,19 +9471,19 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="55"/>
-      <c r="R234" s="50"/>
+      <c r="Q234" s="53"/>
+      <c r="R234" s="47"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
-      <c r="A235" s="22"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="58"/>
+      <c r="A235" s="19"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="55"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E235" s="32"/>
-      <c r="F235" s="21"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="18"/>
       <c r="G235" s="10"/>
       <c r="H235" s="5"/>
       <c r="I235" s="12" t="str">
@@ -9464,18 +9506,18 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="55"/>
-      <c r="R235" s="50"/>
+      <c r="Q235" s="53"/>
+      <c r="R235" s="47"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
-      <c r="A236" s="22"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="58"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="55"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E236" s="25"/>
+      <c r="E236" s="22"/>
       <c r="F236" s="4"/>
       <c r="G236" s="10"/>
       <c r="H236" s="8"/>
@@ -9499,18 +9541,18 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="55"/>
-      <c r="R236" s="50"/>
+      <c r="Q236" s="53"/>
+      <c r="R236" s="47"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
-      <c r="A237" s="22"/>
-      <c r="B237" s="55"/>
-      <c r="C237" s="58"/>
+      <c r="A237" s="19"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="55"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E237" s="25"/>
+      <c r="E237" s="22"/>
       <c r="F237" s="4"/>
       <c r="G237" s="10"/>
       <c r="H237" s="8"/>
@@ -9534,18 +9576,18 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="55"/>
-      <c r="R237" s="50"/>
+      <c r="Q237" s="53"/>
+      <c r="R237" s="47"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
-      <c r="A238" s="22"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="58"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="55"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E238" s="25"/>
+      <c r="E238" s="22"/>
       <c r="F238" s="4"/>
       <c r="G238" s="10"/>
       <c r="H238" s="8"/>
@@ -9569,18 +9611,18 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="55"/>
-      <c r="R238" s="50"/>
+      <c r="Q238" s="53"/>
+      <c r="R238" s="47"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
-      <c r="A239" s="22"/>
-      <c r="B239" s="55"/>
-      <c r="C239" s="58"/>
+      <c r="A239" s="19"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="55"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E239" s="25"/>
+      <c r="E239" s="22"/>
       <c r="F239" s="4"/>
       <c r="G239" s="10"/>
       <c r="H239" s="8"/>
@@ -9604,18 +9646,18 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="55"/>
-      <c r="R239" s="50"/>
+      <c r="Q239" s="53"/>
+      <c r="R239" s="47"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
-      <c r="A240" s="22"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="58"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="55"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E240" s="25"/>
+      <c r="E240" s="22"/>
       <c r="F240" s="4"/>
       <c r="G240" s="10"/>
       <c r="H240" s="8"/>
@@ -9639,18 +9681,18 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="55"/>
-      <c r="R240" s="50"/>
+      <c r="Q240" s="53"/>
+      <c r="R240" s="47"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
-      <c r="A241" s="22"/>
-      <c r="B241" s="55"/>
-      <c r="C241" s="58"/>
+      <c r="A241" s="19"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="55"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E241" s="25"/>
+      <c r="E241" s="22"/>
       <c r="F241" s="4"/>
       <c r="G241" s="10"/>
       <c r="H241" s="8"/>
@@ -9674,18 +9716,18 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="55"/>
-      <c r="R241" s="50"/>
+      <c r="Q241" s="53"/>
+      <c r="R241" s="47"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
-      <c r="A242" s="22"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="58"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="55"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E242" s="25"/>
+      <c r="E242" s="22"/>
       <c r="F242" s="4"/>
       <c r="G242" s="10"/>
       <c r="H242" s="8"/>
@@ -9709,18 +9751,18 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="55"/>
-      <c r="R242" s="50"/>
+      <c r="Q242" s="53"/>
+      <c r="R242" s="47"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
-      <c r="A243" s="22"/>
-      <c r="B243" s="56"/>
-      <c r="C243" s="58"/>
+      <c r="A243" s="19"/>
+      <c r="B243" s="54"/>
+      <c r="C243" s="55"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E243" s="25"/>
+      <c r="E243" s="22"/>
       <c r="F243" s="4"/>
       <c r="G243" s="10"/>
       <c r="H243" s="8"/>
@@ -9744,19 +9786,19 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="56"/>
-      <c r="R243" s="50"/>
+      <c r="Q243" s="54"/>
+      <c r="R243" s="47"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
-      <c r="A244" s="22"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="58"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="55"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E244" s="26"/>
-      <c r="F244" s="24"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="21"/>
       <c r="G244" s="10"/>
       <c r="H244" s="8"/>
       <c r="I244" s="12" t="str">
@@ -9779,19 +9821,19 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="54"/>
-      <c r="R244" s="50"/>
+      <c r="Q244" s="52"/>
+      <c r="R244" s="47"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
-      <c r="A245" s="22"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="58"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="53"/>
+      <c r="C245" s="55"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E245" s="9"/>
-      <c r="F245" s="24"/>
+      <c r="F245" s="21"/>
       <c r="G245" s="10"/>
       <c r="H245" s="8"/>
       <c r="I245" s="12" t="str">
@@ -9814,19 +9856,19 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="55"/>
-      <c r="R245" s="50"/>
+      <c r="Q245" s="53"/>
+      <c r="R245" s="47"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
-      <c r="A246" s="22"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="58"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="55"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E246" s="31"/>
-      <c r="F246" s="24"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="21"/>
       <c r="G246" s="10"/>
       <c r="H246" s="8"/>
       <c r="I246" s="12" t="str">
@@ -9849,19 +9891,19 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="55"/>
-      <c r="R246" s="50"/>
+      <c r="Q246" s="53"/>
+      <c r="R246" s="47"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
-      <c r="A247" s="22"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="58"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="55"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E247" s="25"/>
-      <c r="F247" s="34"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="31"/>
       <c r="G247" s="10"/>
       <c r="H247" s="8"/>
       <c r="I247" s="12" t="str">
@@ -9884,19 +9926,19 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="55"/>
-      <c r="R247" s="50"/>
+      <c r="Q247" s="53"/>
+      <c r="R247" s="47"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
-      <c r="A248" s="22"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="58"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="53"/>
+      <c r="C248" s="55"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E248" s="25"/>
-      <c r="F248" s="34"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="31"/>
       <c r="G248" s="10"/>
       <c r="H248" s="8"/>
       <c r="I248" s="12" t="str">
@@ -9919,19 +9961,19 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="55"/>
-      <c r="R248" s="50"/>
+      <c r="Q248" s="53"/>
+      <c r="R248" s="47"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
-      <c r="A249" s="22"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="58"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="55"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E249" s="25"/>
-      <c r="F249" s="34"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="31"/>
       <c r="G249" s="10"/>
       <c r="H249" s="8"/>
       <c r="I249" s="12" t="str">
@@ -9954,19 +9996,19 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="55"/>
-      <c r="R249" s="50"/>
+      <c r="Q249" s="53"/>
+      <c r="R249" s="47"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
-      <c r="A250" s="22"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="58"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="55"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E250" s="25"/>
-      <c r="F250" s="34"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="31"/>
       <c r="G250" s="10"/>
       <c r="H250" s="8"/>
       <c r="I250" s="12" t="str">
@@ -9989,19 +10031,19 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="55"/>
-      <c r="R250" s="50"/>
+      <c r="Q250" s="53"/>
+      <c r="R250" s="47"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
-      <c r="A251" s="22"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="58"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="53"/>
+      <c r="C251" s="55"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E251" s="25"/>
-      <c r="F251" s="34"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="31"/>
       <c r="G251" s="10"/>
       <c r="H251" s="8"/>
       <c r="I251" s="12" t="str">
@@ -10024,19 +10066,19 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="55"/>
-      <c r="R251" s="50"/>
+      <c r="Q251" s="53"/>
+      <c r="R251" s="47"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
-      <c r="A252" s="22"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="58"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="53"/>
+      <c r="C252" s="55"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E252" s="25"/>
-      <c r="F252" s="34"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="31"/>
       <c r="G252" s="10"/>
       <c r="H252" s="8"/>
       <c r="I252" s="12" t="str">
@@ -10059,19 +10101,19 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="55"/>
-      <c r="R252" s="50"/>
+      <c r="Q252" s="53"/>
+      <c r="R252" s="47"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
-      <c r="A253" s="22"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="58"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="53"/>
+      <c r="C253" s="55"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E253" s="25"/>
-      <c r="F253" s="34"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="31"/>
       <c r="G253" s="10"/>
       <c r="H253" s="8"/>
       <c r="I253" s="12" t="str">
@@ -10094,19 +10136,19 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="55"/>
-      <c r="R253" s="50"/>
+      <c r="Q253" s="53"/>
+      <c r="R253" s="47"/>
     </row>
     <row r="254" spans="1:18" ht="15.75">
-      <c r="A254" s="22"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="58"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="53"/>
+      <c r="C254" s="55"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E254" s="25"/>
-      <c r="F254" s="34"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="31"/>
       <c r="G254" s="10"/>
       <c r="H254" s="8"/>
       <c r="I254" s="12" t="str">
@@ -10129,19 +10171,19 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="55"/>
-      <c r="R254" s="50"/>
+      <c r="Q254" s="53"/>
+      <c r="R254" s="47"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
-      <c r="A255" s="22"/>
-      <c r="B255" s="55"/>
-      <c r="C255" s="58"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="53"/>
+      <c r="C255" s="55"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E255" s="25"/>
-      <c r="F255" s="34"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="31"/>
       <c r="G255" s="10"/>
       <c r="H255" s="8"/>
       <c r="I255" s="12" t="str">
@@ -10164,19 +10206,19 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="55"/>
-      <c r="R255" s="50"/>
+      <c r="Q255" s="53"/>
+      <c r="R255" s="47"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
-      <c r="A256" s="22"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="58"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="55"/>
       <c r="D256" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E256" s="25"/>
-      <c r="F256" s="34"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="31"/>
       <c r="G256" s="10"/>
       <c r="H256" s="8"/>
       <c r="I256" s="12" t="str">
@@ -10199,19 +10241,19 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="55"/>
-      <c r="R256" s="50"/>
+      <c r="Q256" s="53"/>
+      <c r="R256" s="47"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
-      <c r="A257" s="22"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="58"/>
+      <c r="A257" s="19"/>
+      <c r="B257" s="53"/>
+      <c r="C257" s="55"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E257" s="25"/>
-      <c r="F257" s="34"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="31"/>
       <c r="G257" s="10"/>
       <c r="H257" s="8"/>
       <c r="I257" s="12" t="str">
@@ -10234,26 +10276,26 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="55"/>
-      <c r="R257" s="50"/>
+      <c r="Q257" s="53"/>
+      <c r="R257" s="47"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
-      <c r="A258" s="22"/>
-      <c r="B258" s="56"/>
-      <c r="C258" s="58"/>
+      <c r="A258" s="19"/>
+      <c r="B258" s="54"/>
+      <c r="C258" s="55"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E258" s="25"/>
-      <c r="F258" s="34"/>
-      <c r="G258" s="36"/>
-      <c r="H258" s="37"/>
-      <c r="I258" s="46" t="str">
+      <c r="E258" s="22"/>
+      <c r="F258" s="31"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="43" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J258" s="46"/>
+      <c r="J258" s="43"/>
       <c r="K258" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10266,29 +10308,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N258" s="36"/>
-      <c r="O258" s="36"/>
-      <c r="P258" s="36"/>
-      <c r="Q258" s="56"/>
-      <c r="R258" s="50"/>
+      <c r="N258" s="33"/>
+      <c r="O258" s="33"/>
+      <c r="P258" s="33"/>
+      <c r="Q258" s="54"/>
+      <c r="R258" s="47"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A259" s="22"/>
-      <c r="B259" s="54"/>
-      <c r="C259" s="58"/>
+      <c r="A259" s="19"/>
+      <c r="B259" s="52"/>
+      <c r="C259" s="55"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E259" s="38"/>
-      <c r="F259" s="39"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="36"/>
       <c r="G259" s="10"/>
-      <c r="H259" s="37"/>
-      <c r="I259" s="46" t="str">
+      <c r="H259" s="34"/>
+      <c r="I259" s="43" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J259" s="46"/>
+      <c r="J259" s="43"/>
       <c r="K259" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10301,29 +10343,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N259" s="36"/>
-      <c r="O259" s="36"/>
-      <c r="P259" s="36"/>
-      <c r="Q259" s="54"/>
-      <c r="R259" s="50"/>
+      <c r="N259" s="33"/>
+      <c r="O259" s="33"/>
+      <c r="P259" s="33"/>
+      <c r="Q259" s="52"/>
+      <c r="R259" s="47"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
-      <c r="A260" s="22"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="58"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="53"/>
+      <c r="C260" s="55"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E260" s="38"/>
-      <c r="F260" s="39"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="36"/>
       <c r="G260" s="10"/>
-      <c r="H260" s="37"/>
-      <c r="I260" s="46" t="str">
+      <c r="H260" s="34"/>
+      <c r="I260" s="43" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J260" s="46"/>
+      <c r="J260" s="43"/>
       <c r="K260" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10336,29 +10378,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N260" s="36"/>
-      <c r="O260" s="36"/>
-      <c r="P260" s="36"/>
-      <c r="Q260" s="55"/>
-      <c r="R260" s="50"/>
+      <c r="N260" s="33"/>
+      <c r="O260" s="33"/>
+      <c r="P260" s="33"/>
+      <c r="Q260" s="53"/>
+      <c r="R260" s="47"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
-      <c r="A261" s="22"/>
-      <c r="B261" s="55"/>
-      <c r="C261" s="58"/>
+      <c r="A261" s="19"/>
+      <c r="B261" s="53"/>
+      <c r="C261" s="55"/>
       <c r="D261" s="5" t="str">
         <f t="shared" ref="D261:D273" si="15">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E261" s="38"/>
-      <c r="F261" s="39"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="36"/>
       <c r="G261" s="10"/>
-      <c r="H261" s="37"/>
-      <c r="I261" s="46" t="str">
+      <c r="H261" s="34"/>
+      <c r="I261" s="43" t="str">
         <f t="shared" ref="I261:I273" si="16">IF(MID(H261,2,1)=":",LEFT(H261,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J261" s="46"/>
+      <c r="J261" s="43"/>
       <c r="K261" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10371,29 +10413,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N261" s="36"/>
-      <c r="O261" s="36"/>
-      <c r="P261" s="36"/>
-      <c r="Q261" s="55"/>
-      <c r="R261" s="50"/>
+      <c r="N261" s="33"/>
+      <c r="O261" s="33"/>
+      <c r="P261" s="33"/>
+      <c r="Q261" s="53"/>
+      <c r="R261" s="47"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
-      <c r="A262" s="22"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="58"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="53"/>
+      <c r="C262" s="55"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E262" s="38"/>
-      <c r="F262" s="39"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="36"/>
       <c r="G262" s="10"/>
-      <c r="H262" s="37"/>
-      <c r="I262" s="46" t="str">
+      <c r="H262" s="34"/>
+      <c r="I262" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J262" s="46"/>
+      <c r="J262" s="43"/>
       <c r="K262" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10406,29 +10448,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N262" s="36"/>
-      <c r="O262" s="36"/>
-      <c r="P262" s="36"/>
-      <c r="Q262" s="55"/>
-      <c r="R262" s="50"/>
+      <c r="N262" s="33"/>
+      <c r="O262" s="33"/>
+      <c r="P262" s="33"/>
+      <c r="Q262" s="53"/>
+      <c r="R262" s="47"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
-      <c r="A263" s="22"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="58"/>
+      <c r="A263" s="19"/>
+      <c r="B263" s="53"/>
+      <c r="C263" s="55"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E263" s="31"/>
-      <c r="F263" s="30"/>
+      <c r="E263" s="28"/>
+      <c r="F263" s="27"/>
       <c r="G263" s="10"/>
-      <c r="H263" s="37"/>
-      <c r="I263" s="46" t="str">
+      <c r="H263" s="34"/>
+      <c r="I263" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J263" s="46"/>
+      <c r="J263" s="43"/>
       <c r="K263" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10441,29 +10483,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N263" s="36"/>
-      <c r="O263" s="36"/>
-      <c r="P263" s="36"/>
-      <c r="Q263" s="55"/>
-      <c r="R263" s="50"/>
+      <c r="N263" s="33"/>
+      <c r="O263" s="33"/>
+      <c r="P263" s="33"/>
+      <c r="Q263" s="53"/>
+      <c r="R263" s="47"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
-      <c r="A264" s="22"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="58"/>
+      <c r="A264" s="19"/>
+      <c r="B264" s="53"/>
+      <c r="C264" s="55"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E264" s="40"/>
-      <c r="F264" s="30"/>
+      <c r="E264" s="37"/>
+      <c r="F264" s="27"/>
       <c r="G264" s="10"/>
-      <c r="H264" s="37"/>
-      <c r="I264" s="46" t="str">
+      <c r="H264" s="34"/>
+      <c r="I264" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J264" s="46"/>
+      <c r="J264" s="43"/>
       <c r="K264" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10476,29 +10518,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N264" s="36"/>
-      <c r="O264" s="36"/>
-      <c r="P264" s="36"/>
-      <c r="Q264" s="55"/>
-      <c r="R264" s="50"/>
+      <c r="N264" s="33"/>
+      <c r="O264" s="33"/>
+      <c r="P264" s="33"/>
+      <c r="Q264" s="53"/>
+      <c r="R264" s="47"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
-      <c r="A265" s="22"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="58"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="55"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E265" s="31"/>
-      <c r="F265" s="30"/>
+      <c r="E265" s="28"/>
+      <c r="F265" s="27"/>
       <c r="G265" s="10"/>
-      <c r="H265" s="37"/>
-      <c r="I265" s="46" t="str">
+      <c r="H265" s="34"/>
+      <c r="I265" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J265" s="46"/>
+      <c r="J265" s="43"/>
       <c r="K265" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10511,29 +10553,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N265" s="36"/>
-      <c r="O265" s="36"/>
-      <c r="P265" s="36"/>
-      <c r="Q265" s="55"/>
-      <c r="R265" s="50"/>
+      <c r="N265" s="33"/>
+      <c r="O265" s="33"/>
+      <c r="P265" s="33"/>
+      <c r="Q265" s="53"/>
+      <c r="R265" s="47"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
-      <c r="A266" s="22"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="58"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="53"/>
+      <c r="C266" s="55"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E266" s="31"/>
-      <c r="F266" s="30"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="27"/>
       <c r="G266" s="10"/>
-      <c r="H266" s="37"/>
-      <c r="I266" s="46" t="str">
+      <c r="H266" s="34"/>
+      <c r="I266" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J266" s="46"/>
+      <c r="J266" s="43"/>
       <c r="K266" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10546,28 +10588,28 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N266" s="36"/>
-      <c r="P266" s="36"/>
-      <c r="Q266" s="55"/>
-      <c r="R266" s="50"/>
+      <c r="N266" s="33"/>
+      <c r="P266" s="33"/>
+      <c r="Q266" s="53"/>
+      <c r="R266" s="47"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
-      <c r="A267" s="22"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="58"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="55"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E267" s="41"/>
-      <c r="F267" s="34"/>
+      <c r="E267" s="38"/>
+      <c r="F267" s="31"/>
       <c r="G267" s="10"/>
-      <c r="H267" s="37"/>
-      <c r="I267" s="46" t="str">
+      <c r="H267" s="34"/>
+      <c r="I267" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J267" s="46"/>
+      <c r="J267" s="43"/>
       <c r="K267" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10580,29 +10622,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N267" s="36"/>
-      <c r="O267" s="36"/>
-      <c r="P267" s="36"/>
-      <c r="Q267" s="55"/>
-      <c r="R267" s="50"/>
+      <c r="N267" s="33"/>
+      <c r="O267" s="33"/>
+      <c r="P267" s="33"/>
+      <c r="Q267" s="53"/>
+      <c r="R267" s="47"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
-      <c r="A268" s="22"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="58"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="53"/>
+      <c r="C268" s="55"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E268" s="41"/>
-      <c r="F268" s="34"/>
+      <c r="E268" s="38"/>
+      <c r="F268" s="31"/>
       <c r="G268" s="10"/>
-      <c r="H268" s="37"/>
-      <c r="I268" s="46" t="str">
+      <c r="H268" s="34"/>
+      <c r="I268" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J268" s="46"/>
+      <c r="J268" s="43"/>
       <c r="K268" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10615,29 +10657,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N268" s="36"/>
-      <c r="O268" s="36"/>
-      <c r="P268" s="36"/>
-      <c r="Q268" s="55"/>
-      <c r="R268" s="50"/>
+      <c r="N268" s="33"/>
+      <c r="O268" s="33"/>
+      <c r="P268" s="33"/>
+      <c r="Q268" s="53"/>
+      <c r="R268" s="47"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
-      <c r="A269" s="22"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="58"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="53"/>
+      <c r="C269" s="55"/>
       <c r="D269" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E269" s="41"/>
-      <c r="F269" s="34"/>
+      <c r="E269" s="38"/>
+      <c r="F269" s="31"/>
       <c r="G269" s="10"/>
-      <c r="H269" s="37"/>
-      <c r="I269" s="46" t="str">
+      <c r="H269" s="34"/>
+      <c r="I269" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J269" s="46"/>
+      <c r="J269" s="43"/>
       <c r="K269" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10650,29 +10692,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N269" s="36"/>
-      <c r="O269" s="36"/>
-      <c r="P269" s="36"/>
-      <c r="Q269" s="55"/>
-      <c r="R269" s="50"/>
+      <c r="N269" s="33"/>
+      <c r="O269" s="33"/>
+      <c r="P269" s="33"/>
+      <c r="Q269" s="53"/>
+      <c r="R269" s="47"/>
     </row>
     <row r="270" spans="1:18" ht="15.75">
-      <c r="A270" s="22"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="58"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="53"/>
+      <c r="C270" s="55"/>
       <c r="D270" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E270" s="41"/>
-      <c r="F270" s="34"/>
+      <c r="E270" s="38"/>
+      <c r="F270" s="31"/>
       <c r="G270" s="10"/>
-      <c r="H270" s="37"/>
-      <c r="I270" s="46" t="str">
+      <c r="H270" s="34"/>
+      <c r="I270" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J270" s="46"/>
+      <c r="J270" s="43"/>
       <c r="K270" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10685,29 +10727,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N270" s="36"/>
-      <c r="O270" s="36"/>
-      <c r="P270" s="36"/>
-      <c r="Q270" s="55"/>
-      <c r="R270" s="50"/>
+      <c r="N270" s="33"/>
+      <c r="O270" s="33"/>
+      <c r="P270" s="33"/>
+      <c r="Q270" s="53"/>
+      <c r="R270" s="47"/>
     </row>
     <row r="271" spans="1:18" ht="15.75">
-      <c r="A271" s="22"/>
-      <c r="B271" s="55"/>
-      <c r="C271" s="58"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="53"/>
+      <c r="C271" s="55"/>
       <c r="D271" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E271" s="25"/>
-      <c r="F271" s="34"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="31"/>
       <c r="G271" s="10"/>
-      <c r="H271" s="37"/>
-      <c r="I271" s="46" t="str">
+      <c r="H271" s="34"/>
+      <c r="I271" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J271" s="46"/>
+      <c r="J271" s="43"/>
       <c r="K271" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10720,29 +10762,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N271" s="36"/>
-      <c r="O271" s="36"/>
-      <c r="P271" s="36"/>
-      <c r="Q271" s="55"/>
-      <c r="R271" s="50"/>
+      <c r="N271" s="33"/>
+      <c r="O271" s="33"/>
+      <c r="P271" s="33"/>
+      <c r="Q271" s="53"/>
+      <c r="R271" s="47"/>
     </row>
     <row r="272" spans="1:18" ht="15.75">
-      <c r="A272" s="22"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="58"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="53"/>
+      <c r="C272" s="55"/>
       <c r="D272" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E272" s="25"/>
-      <c r="F272" s="34"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="31"/>
       <c r="G272" s="10"/>
-      <c r="H272" s="37"/>
-      <c r="I272" s="46" t="str">
+      <c r="H272" s="34"/>
+      <c r="I272" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J272" s="46"/>
+      <c r="J272" s="43"/>
       <c r="K272" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10755,29 +10797,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N272" s="36"/>
-      <c r="O272" s="36"/>
-      <c r="P272" s="36"/>
-      <c r="Q272" s="55"/>
-      <c r="R272" s="50"/>
+      <c r="N272" s="33"/>
+      <c r="O272" s="33"/>
+      <c r="P272" s="33"/>
+      <c r="Q272" s="53"/>
+      <c r="R272" s="47"/>
     </row>
     <row r="273" spans="1:18" ht="15.75">
-      <c r="A273" s="42"/>
-      <c r="B273" s="56"/>
-      <c r="C273" s="58"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="54"/>
+      <c r="C273" s="55"/>
       <c r="D273" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E273" s="25"/>
+      <c r="E273" s="22"/>
       <c r="F273" s="4"/>
       <c r="G273" s="10"/>
-      <c r="H273" s="37"/>
-      <c r="I273" s="46" t="str">
+      <c r="H273" s="34"/>
+      <c r="I273" s="43" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J273" s="46"/>
+      <c r="J273" s="43"/>
       <c r="K273" s="8" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10790,64 +10832,108 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N273" s="36"/>
-      <c r="O273" s="36"/>
-      <c r="P273" s="36"/>
-      <c r="Q273" s="56"/>
-      <c r="R273" s="50"/>
+      <c r="N273" s="33"/>
+      <c r="O273" s="33"/>
+      <c r="P273" s="33"/>
+      <c r="Q273" s="54"/>
+      <c r="R273" s="47"/>
     </row>
     <row r="274" spans="1:18" ht="15.75">
-      <c r="G274" s="43"/>
-      <c r="H274" s="37"/>
-      <c r="I274" s="46"/>
-      <c r="J274" s="46"/>
-      <c r="K274" s="36"/>
-      <c r="L274" s="36"/>
-      <c r="M274" s="36"/>
-      <c r="N274" s="36"/>
-      <c r="O274" s="36"/>
-      <c r="P274" s="36"/>
-      <c r="Q274" s="47"/>
-      <c r="R274" s="48"/>
+      <c r="G274" s="40"/>
+      <c r="H274" s="34"/>
+      <c r="I274" s="43"/>
+      <c r="J274" s="43"/>
+      <c r="K274" s="33"/>
+      <c r="L274" s="33"/>
+      <c r="M274" s="33"/>
+      <c r="N274" s="33"/>
+      <c r="O274" s="33"/>
+      <c r="P274" s="33"/>
+      <c r="Q274" s="44"/>
+      <c r="R274" s="45"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A275" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B275" s="44"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="44"/>
-      <c r="E275" s="45"/>
-      <c r="G275" s="39"/>
-      <c r="H275" s="37"/>
-      <c r="I275" s="46"/>
-      <c r="J275" s="46"/>
-      <c r="K275" s="36"/>
-      <c r="L275" s="36"/>
-      <c r="M275" s="36"/>
-      <c r="N275" s="36"/>
-      <c r="O275" s="36"/>
-      <c r="P275" s="36"/>
-      <c r="Q275" s="47"/>
-      <c r="R275" s="48"/>
+      <c r="A275" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B275" s="41"/>
+      <c r="C275" s="41"/>
+      <c r="D275" s="41"/>
+      <c r="E275" s="42"/>
+      <c r="G275" s="36"/>
+      <c r="H275" s="34"/>
+      <c r="I275" s="43"/>
+      <c r="J275" s="43"/>
+      <c r="K275" s="33"/>
+      <c r="L275" s="33"/>
+      <c r="M275" s="33"/>
+      <c r="N275" s="33"/>
+      <c r="O275" s="33"/>
+      <c r="P275" s="33"/>
+      <c r="Q275" s="44"/>
+      <c r="R275" s="45"/>
     </row>
     <row r="276" spans="1:18" ht="15.75">
-      <c r="G276" s="39"/>
-      <c r="H276" s="37"/>
-      <c r="I276" s="46"/>
-      <c r="J276" s="46"/>
-      <c r="K276" s="36"/>
-      <c r="L276" s="36"/>
-      <c r="M276" s="36"/>
-      <c r="N276" s="36"/>
-      <c r="O276" s="36"/>
-      <c r="P276" s="36"/>
-      <c r="Q276" s="47"/>
-      <c r="R276" s="48"/>
+      <c r="G276" s="36"/>
+      <c r="H276" s="34"/>
+      <c r="I276" s="43"/>
+      <c r="J276" s="43"/>
+      <c r="K276" s="33"/>
+      <c r="L276" s="33"/>
+      <c r="M276" s="33"/>
+      <c r="N276" s="33"/>
+      <c r="O276" s="33"/>
+      <c r="P276" s="33"/>
+      <c r="Q276" s="44"/>
+      <c r="R276" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P273"/>
   <mergeCells count="60">
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="A34:A153"/>
+    <mergeCell ref="A154:A213"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="B139:B153"/>
+    <mergeCell ref="B154:B168"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="C124:C138"/>
+    <mergeCell ref="C139:C153"/>
+    <mergeCell ref="Q154:Q168"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="C154:C168"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="Q124:Q138"/>
+    <mergeCell ref="Q139:Q153"/>
     <mergeCell ref="R4:R93"/>
     <mergeCell ref="R94:R273"/>
     <mergeCell ref="A1:F2"/>
@@ -10864,118 +10950,74 @@
     <mergeCell ref="Q34:Q48"/>
     <mergeCell ref="Q49:Q63"/>
     <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="Q124:Q138"/>
-    <mergeCell ref="Q139:Q153"/>
-    <mergeCell ref="Q154:Q168"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="C154:C168"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="C124:C138"/>
-    <mergeCell ref="C139:C153"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="A4:A33"/>
-    <mergeCell ref="A34:A153"/>
-    <mergeCell ref="A154:A213"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="B124:B138"/>
-    <mergeCell ref="B139:B153"/>
-    <mergeCell ref="B154:B168"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="B184:B198"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11002,25 +11044,28 @@
     <hyperlink ref="E169" r:id="rId3"/>
     <hyperlink ref="E19" r:id="rId4"/>
     <hyperlink ref="E34" r:id="rId5"/>
-    <hyperlink ref="E35" r:id="rId6"/>
-    <hyperlink ref="E49" r:id="rId7"/>
-    <hyperlink ref="E64" r:id="rId8"/>
-    <hyperlink ref="E65" r:id="rId9"/>
-    <hyperlink ref="E79" r:id="rId10"/>
-    <hyperlink ref="E80" r:id="rId11"/>
-    <hyperlink ref="E94" r:id="rId12"/>
-    <hyperlink ref="E95" r:id="rId13"/>
-    <hyperlink ref="E124" r:id="rId14"/>
-    <hyperlink ref="E154" r:id="rId15"/>
-    <hyperlink ref="E170" r:id="rId16"/>
-    <hyperlink ref="E184" r:id="rId17"/>
-    <hyperlink ref="E199" r:id="rId18"/>
-    <hyperlink ref="E200" r:id="rId19"/>
-    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E64" r:id="rId6"/>
+    <hyperlink ref="E65" r:id="rId7"/>
+    <hyperlink ref="E79" r:id="rId8"/>
+    <hyperlink ref="E80" r:id="rId9"/>
+    <hyperlink ref="E94" r:id="rId10"/>
+    <hyperlink ref="E95" r:id="rId11"/>
+    <hyperlink ref="E124" r:id="rId12"/>
+    <hyperlink ref="E154" r:id="rId13"/>
+    <hyperlink ref="E170" r:id="rId14"/>
+    <hyperlink ref="E184" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E109" r:id="rId17"/>
+    <hyperlink ref="E110" r:id="rId18"/>
+    <hyperlink ref="E140" r:id="rId19"/>
+    <hyperlink ref="E49" r:id="rId20"/>
     <hyperlink ref="E50" r:id="rId21"/>
-    <hyperlink ref="E109" r:id="rId22"/>
-    <hyperlink ref="E110" r:id="rId23"/>
-    <hyperlink ref="E140" r:id="rId24"/>
+    <hyperlink ref="E51" r:id="rId22"/>
+    <hyperlink ref="E141" r:id="rId23"/>
+    <hyperlink ref="E199" r:id="rId24"/>
+    <hyperlink ref="E200" r:id="rId25"/>
+    <hyperlink ref="E201" r:id="rId26"/>
+    <hyperlink ref="E202" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/PIID/PLAN.xlsx
+++ b/PIID/PLAN.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>PLAN</t>
   </si>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">Review plans and obtain commitments from affected stakeholders. </t>
   </si>
   <si>
-    <t>Stakeholders affirmation on planned schedule, resources etc.</t>
-  </si>
-  <si>
     <t>Level 3</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">Identify and negotiate critical dependencies. </t>
-  </si>
-  <si>
-    <t>GGE302_RSKMTX</t>
-  </si>
-  <si>
-    <t>Critical dependecies mentioned in risk matrix.</t>
   </si>
   <si>
     <t xml:space="preserve">Plan for the project environment and keep it updated based on the organization’s standards. </t>
@@ -168,19 +159,10 @@
     <t>In Plan tasks identified to make user support documents.</t>
   </si>
   <si>
-    <t>In pre planning meeting discussed the roles to involve the stackholders.</t>
-  </si>
-  <si>
     <t>Meeting with team to deploy and discuss the finalized the plan.</t>
   </si>
   <si>
     <t>Project plan updated through out the project lifecycle whenever needed, and can be checked in publish log.</t>
-  </si>
-  <si>
-    <t>Take estimation hardware, reference to establish estimation of project GGE302 and accordingly develop plan.</t>
-  </si>
-  <si>
-    <t>Critical resources CREO tool, SMF Batteries etc in Asset section (resource plan)</t>
   </si>
   <si>
     <t>GGE302</t>
@@ -189,48 +171,108 @@
     <t>CHAR - GGE302-FI/LI</t>
   </si>
   <si>
-    <t>For all task defined task Id and discription in Project Plan</t>
-  </si>
-  <si>
-    <t>All defined tasks have relevant people. And all relevent peopele added in project team</t>
-  </si>
-  <si>
     <t>project consists of every tasks list and it is updated on regular basis. It can be tracked through task  comments .</t>
   </si>
   <si>
-    <t>Product knowledge releted actiivity plan and team meeting dicussion in kick off meeting.</t>
+    <t>The level of work in project defined in terms of tasks.</t>
   </si>
   <si>
-    <t>For new member work releted  knowlege plan done like validation handover .</t>
+    <t>The description and timeline defined for each tasks.</t>
   </si>
   <si>
-    <t>Telent Map  And GAP</t>
+    <t>GGE302_Project_Team</t>
   </si>
   <si>
-    <t>Each task defiend with time  in form of days.</t>
+    <t>The description section of project consists of objective of project, what outcomes expected.</t>
   </si>
   <si>
-    <t>Review plan planned at all  stage and valuable / critical artefacts -like plan ,RTT ,Requirment, design,implemetation,testing,etc.</t>
+    <t>GGE302_Talent Map  And GAP</t>
   </si>
   <si>
-    <t xml:space="preserve">Keep the project enviroment  releted things like Assets, tool  and equipment  that peapol need to perform theire job.
-all testing releted task  (Moidule testing ,integration testing ,and validation) relevent environment ,equipment and tools are planed </t>
+    <t>Major milestones in terms of Toll gates defined.</t>
   </si>
   <si>
-    <t>Product traning planed in validation handover task.</t>
+    <t>Based on estimated efforts schedule prepared till end.</t>
   </si>
   <si>
-    <t xml:space="preserve">all relevent ad reqired resources avilable so no need to plan to assign responcibility to plan to acquire resources and facilitries </t>
+    <t>Predecessor and successors used for task dependencies.</t>
   </si>
   <si>
-    <t xml:space="preserve">For the contigency plan if the resource and facilities and environment can not be obtained -we are tanen care all long tetsing releted plan with effort of 30-40% at eachj day . in case inavilability of any thing can be managed next day or by befor day.or can be managed full effort on single day. </t>
+    <t>Resources in terms of men and machines defined as dependencies of each task.</t>
+  </si>
+  <si>
+    <t>GGE302_CM_PLAN</t>
+  </si>
+  <si>
+    <t>Project plan made.</t>
+  </si>
+  <si>
+    <t>CM plan as separate section of project plan made.</t>
+  </si>
+  <si>
+    <t>GGE302_Project_Publish_Log</t>
+  </si>
+  <si>
+    <t>Project category defined for this project that is from organization processes.</t>
+  </si>
+  <si>
+    <t>Task template used as reference during task list out and planning.</t>
+  </si>
+  <si>
+    <t>As organization measurement repository took reference of GGE295 actual data during estimation.</t>
+  </si>
+  <si>
+    <t>The actual efforts automatically made / added in as measurement repository of organization.</t>
+  </si>
+  <si>
+    <t>GGE302_PLAN_Risk</t>
+  </si>
+  <si>
+    <t>Project team as per discussion in meeting added in project, fill skills needs as per project requirements and check gaps in skills.</t>
+  </si>
+  <si>
+    <t>All defined tasks have relevant people. And all relevant people added in project team</t>
+  </si>
+  <si>
+    <t>Product knowledge related activity plan and team meeting discussion in kick off meeting.</t>
+  </si>
+  <si>
+    <t>For new member work related  knowledge plan done like validation handover .</t>
+  </si>
+  <si>
+    <t>In pre planning meeting discussed the roles to involve the stakeholders.</t>
+  </si>
+  <si>
+    <t>Stakeholders confirmation on planned schedule, resources etc. in project meeting..</t>
+  </si>
+  <si>
+    <t>Review plan planned at all stage and valuable / critical artefacts -like plan ,RTT ,Requirement, design,implemetation,testing,etc.</t>
+  </si>
+  <si>
+    <t>Critical resources CREO tool, SMF Batteries etc. in Asset section (resource plan)</t>
+  </si>
+  <si>
+    <t>Critical dependencies mentioned in risk matrix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep the project environment  related things like Assets, tool  and equipment  that peapol need to perform their job.
+all testing related task  (Module testing ,integration testing ,and validation) relevant environment ,equipment and tools are planed </t>
+  </si>
+  <si>
+    <t>Product training planed in validation handover task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All relevant and required resources available so no need to plan to assign responsibility to plan to acquire resources and facilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the contingency plan if the resource and facilities and environment can not be obtained -we have been taken care all long testing related plan with effort of 30-40% at each day . In case inevitability of any thing can be managed next day or by before day. Or can be managed full effort on single day. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +383,24 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,7 +529,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,10 +667,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,37 +715,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,7 +735,105 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1078,7 +1246,7 @@
   </sheetPr>
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1097,25 +1265,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="57">
       <c r="A3" s="3" t="s">
@@ -1149,12 +1317,12 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1162,13 +1330,13 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="25.5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1179,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>15</v>
@@ -1205,20 +1373,26 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="55"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="25.5">
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+        <v>OK</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="12" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
@@ -1227,26 +1401,26 @@
       <c r="J5" s="12"/>
       <c r="K5" s="8" t="str">
         <f t="shared" ref="K5:M68" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="46"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="46"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1275,13 +1449,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="46"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="47"/>
     </row>
     <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="46"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1310,13 +1484,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="46"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1345,13 +1519,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="46"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="46"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1380,13 +1554,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="46"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="47"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1415,13 +1589,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="46"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1450,13 +1624,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="46"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1485,13 +1659,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="46"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1520,13 +1694,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="46"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="47"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1555,13 +1729,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="46"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="47"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1590,13 +1764,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="46"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="47"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1625,13 +1799,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="46"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="47"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1660,13 +1834,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="46"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="47"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1695,15 +1869,15 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="46"/>
-    </row>
-    <row r="19" spans="1:18" ht="38.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="56">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="47"/>
+    </row>
+    <row r="19" spans="1:18" ht="51">
+      <c r="A19" s="47"/>
+      <c r="B19" s="49">
         <v>1.2</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="5" t="str">
@@ -1711,10 +1885,10 @@
         <v>OK</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>15</v>
@@ -1740,22 +1914,22 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="46"/>
-    </row>
-    <row r="20" spans="1:18" ht="51">
-      <c r="A20" s="46"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47"/>
+    </row>
+    <row r="20" spans="1:18" ht="63.75">
+      <c r="A20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
+      <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>15</v>
@@ -1781,20 +1955,26 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="46"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="1:18" ht="38.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+        <v>OK</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="12" t="str">
         <f t="shared" si="2"/>
@@ -1803,31 +1983,31 @@
       <c r="J21" s="12"/>
       <c r="K21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="46"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="47"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1851,13 +2031,13 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="46"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="47"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="46"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1886,13 +2066,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="46"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="47"/>
     </row>
     <row r="24" spans="1:18" ht="15.75">
-      <c r="A24" s="46"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1921,13 +2101,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="46"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="47"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1956,13 +2136,13 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="46"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1991,13 +2171,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="46"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="47"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="46"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2026,13 +2206,13 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="46"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="47"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2061,13 +2241,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="46"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="47"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="46"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2096,13 +2276,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="46"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="47"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
-      <c r="A30" s="46"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2131,13 +2311,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="46"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="47"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="46"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2166,13 +2346,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="46"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="47"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="46"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2201,13 +2381,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="46"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="47"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="46"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2236,17 +2416,17 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="46"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="47"/>
     </row>
     <row r="34" spans="1:18" ht="51">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="49">
         <v>2.1</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5" t="str">
@@ -2257,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>15</v>
@@ -2283,19 +2463,23 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="46"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75">
-      <c r="A35" s="46"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="55"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="47"/>
+    </row>
+    <row r="35" spans="1:18" ht="38.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+        <v>OK</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="5"/>
       <c r="I35" s="12" t="str">
@@ -2305,26 +2489,26 @@
       <c r="J35" s="12"/>
       <c r="K35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="46"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="47"/>
     </row>
     <row r="36" spans="1:18" ht="15.75">
-      <c r="A36" s="46"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2353,13 +2537,13 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="46"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="47"/>
     </row>
     <row r="37" spans="1:18" ht="15.75">
-      <c r="A37" s="46"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2388,13 +2572,13 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="46"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="47"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
-      <c r="A38" s="46"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="55"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2423,13 +2607,13 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="46"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
-      <c r="A39" s="46"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2458,13 +2642,13 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="46"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="47"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="46"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2493,13 +2677,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="46"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="47"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2528,13 +2712,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="46"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="47"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="46"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2563,13 +2747,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="46"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="47"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
-      <c r="A43" s="46"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2598,13 +2782,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="46"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="47"/>
     </row>
     <row r="44" spans="1:18" ht="15.75">
-      <c r="A44" s="46"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2633,13 +2817,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="46"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="47"/>
     </row>
     <row r="45" spans="1:18" ht="15.75">
-      <c r="A45" s="46"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2668,13 +2852,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="46"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="47"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="46"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2703,13 +2887,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="46"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="47"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="46"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="55"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2738,13 +2922,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="46"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="47"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="46"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="55"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2773,15 +2957,15 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="46"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="47"/>
     </row>
     <row r="49" spans="1:18" ht="63" customHeight="1">
-      <c r="A49" s="46"/>
-      <c r="B49" s="56">
+      <c r="A49" s="47"/>
+      <c r="B49" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="5" t="str">
@@ -2791,8 +2975,8 @@
       <c r="E49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>55</v>
+      <c r="F49" s="62" t="s">
+        <v>67</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>15</v>
@@ -2818,13 +3002,13 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="46"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="47"/>
     </row>
     <row r="50" spans="1:18" ht="52.5" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -2832,8 +3016,8 @@
       <c r="E50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>56</v>
+      <c r="F50" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>15</v>
@@ -2859,22 +3043,22 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="46"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="47"/>
     </row>
     <row r="51" spans="1:18" ht="41.25" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E51" s="61" t="s">
-        <v>57</v>
+      <c r="E51" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>15</v>
@@ -2887,7 +3071,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2900,13 +3084,13 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="46"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="47"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="46"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="55"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2935,13 +3119,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="46"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="47"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="46"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="55"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2970,13 +3154,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="46"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="47"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
-      <c r="A54" s="46"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3005,13 +3189,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="46"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="47"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="46"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3040,13 +3224,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="46"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="47"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="46"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3075,13 +3259,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="46"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="47"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" s="46"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="55"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3110,13 +3294,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="46"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="47"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="46"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3145,13 +3329,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="46"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="47"/>
     </row>
     <row r="59" spans="1:18" ht="15.75">
-      <c r="A59" s="46"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3180,13 +3364,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="46"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="47"/>
     </row>
     <row r="60" spans="1:18" ht="15.75">
-      <c r="A60" s="46"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3215,13 +3399,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="46"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="47"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
-      <c r="A61" s="46"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3250,13 +3434,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="46"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="47"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="46"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3285,13 +3469,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="46"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="47"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
-      <c r="A63" s="46"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="55"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3320,22 +3504,22 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="46"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="47"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A64" s="46"/>
-      <c r="B64" s="56">
+      <c r="A64" s="47"/>
+      <c r="B64" s="49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -3365,22 +3549,22 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="46"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="47"/>
     </row>
     <row r="65" spans="1:18" ht="81.75" customHeight="1">
-      <c r="A65" s="46"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>15</v>
@@ -3406,20 +3590,26 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="46"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="47"/>
     </row>
     <row r="66" spans="1:18" ht="73.5" customHeight="1">
-      <c r="A66" s="46"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3428,33 +3618,39 @@
       <c r="J66" s="12"/>
       <c r="K66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="46"/>
-    </row>
-    <row r="67" spans="1:18" ht="15.75">
-      <c r="A67" s="46"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="55"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="47"/>
+    </row>
+    <row r="67" spans="1:18" ht="25.5">
+      <c r="A67" s="47"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H67" s="8"/>
       <c r="I67" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3463,33 +3659,39 @@
       <c r="J67" s="12"/>
       <c r="K67" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L67" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M67" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="46"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.75">
-      <c r="A68" s="46"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="55"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="47"/>
+    </row>
+    <row r="68" spans="1:18" ht="38.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H68" s="5"/>
       <c r="I68" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3498,26 +3700,26 @@
       <c r="J68" s="12"/>
       <c r="K68" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L68" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M68" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="46"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="47"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
-      <c r="A69" s="46"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="55"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="5" t="str">
         <f t="shared" ref="D69:D132" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3546,13 +3748,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="46"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="47"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
-      <c r="A70" s="46"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3581,13 +3783,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="46"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="47"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
-      <c r="A71" s="46"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3616,13 +3818,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="46"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="47"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
-      <c r="A72" s="46"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3651,13 +3853,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="46"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="47"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
-      <c r="A73" s="46"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="55"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3686,13 +3888,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="46"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="47"/>
     </row>
     <row r="74" spans="1:18" ht="15.75">
-      <c r="A74" s="46"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3721,13 +3923,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="57"/>
-      <c r="R74" s="46"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="47"/>
     </row>
     <row r="75" spans="1:18" ht="15.75">
-      <c r="A75" s="46"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="55"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3756,13 +3958,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="46"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="47"/>
     </row>
     <row r="76" spans="1:18" ht="15.75">
-      <c r="A76" s="46"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="55"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3791,13 +3993,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="46"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="47"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
-      <c r="A77" s="46"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="55"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3826,13 +4028,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="46"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="47"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
-      <c r="A78" s="46"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3861,22 +4063,22 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="46"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="47"/>
     </row>
     <row r="79" spans="1:18" ht="53.25" customHeight="1">
-      <c r="A79" s="46"/>
-      <c r="B79" s="56">
+      <c r="A79" s="47"/>
+      <c r="B79" s="49">
         <v>2.4</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="57" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -3906,22 +4108,22 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="46"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="47"/>
     </row>
     <row r="80" spans="1:18" ht="51">
-      <c r="A80" s="46"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>14</v>
+      <c r="E80" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>15</v>
@@ -3947,13 +4149,13 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="46"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="47"/>
     </row>
     <row r="81" spans="1:18" ht="15.75">
-      <c r="A81" s="46"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3982,13 +4184,13 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="46"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="47"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
-      <c r="A82" s="46"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4017,13 +4219,13 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="46"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="47"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
-      <c r="A83" s="46"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4052,13 +4254,13 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="46"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="47"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
-      <c r="A84" s="46"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4087,13 +4289,13 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="46"/>
+      <c r="Q84" s="50"/>
+      <c r="R84" s="47"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
-      <c r="A85" s="46"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="59"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4122,13 +4324,13 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="46"/>
+      <c r="Q85" s="50"/>
+      <c r="R85" s="47"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
-      <c r="A86" s="46"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="59"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4157,13 +4359,13 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="46"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="47"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
-      <c r="A87" s="46"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="59"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4192,13 +4394,13 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="46"/>
+      <c r="Q87" s="50"/>
+      <c r="R87" s="47"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
-      <c r="A88" s="46"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="59"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="57"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4227,13 +4429,13 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="46"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="47"/>
     </row>
     <row r="89" spans="1:18" ht="15.75">
-      <c r="A89" s="46"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4262,13 +4464,13 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="46"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="47"/>
     </row>
     <row r="90" spans="1:18" ht="15.75">
-      <c r="A90" s="46"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="59"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4297,13 +4499,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="57"/>
-      <c r="R90" s="46"/>
+      <c r="Q90" s="50"/>
+      <c r="R90" s="47"/>
     </row>
     <row r="91" spans="1:18" ht="15.75">
-      <c r="A91" s="46"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="59"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4332,13 +4534,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="46"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="47"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
-      <c r="A92" s="46"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4367,13 +4569,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="46"/>
+      <c r="Q92" s="50"/>
+      <c r="R92" s="47"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
-      <c r="A93" s="46"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="59"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4402,15 +4604,15 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="46"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="47"/>
     </row>
     <row r="94" spans="1:18" ht="84" customHeight="1">
-      <c r="A94" s="46"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="52">
         <v>2.5</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="5" t="str">
@@ -4418,10 +4620,10 @@
         <v>OK</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>15</v>
@@ -4448,21 +4650,21 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="52"/>
-      <c r="R94" s="47"/>
+      <c r="R94" s="48"/>
     </row>
     <row r="95" spans="1:18" ht="25.5">
-      <c r="A95" s="46"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="53"/>
-      <c r="C95" s="59"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>15</v>
@@ -4489,12 +4691,12 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="53"/>
-      <c r="R95" s="47"/>
+      <c r="R95" s="48"/>
     </row>
     <row r="96" spans="1:18" ht="75" customHeight="1">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="53"/>
-      <c r="C96" s="59"/>
+      <c r="C96" s="57"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4524,12 +4726,12 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="53"/>
-      <c r="R96" s="47"/>
+      <c r="R96" s="48"/>
     </row>
     <row r="97" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="53"/>
-      <c r="C97" s="59"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4559,12 +4761,12 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="53"/>
-      <c r="R97" s="47"/>
+      <c r="R97" s="48"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="53"/>
-      <c r="C98" s="59"/>
+      <c r="C98" s="57"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4594,12 +4796,12 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="53"/>
-      <c r="R98" s="47"/>
+      <c r="R98" s="48"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
-      <c r="A99" s="46"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="53"/>
-      <c r="C99" s="59"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4629,12 +4831,12 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="53"/>
-      <c r="R99" s="47"/>
+      <c r="R99" s="48"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
-      <c r="A100" s="46"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="53"/>
-      <c r="C100" s="59"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4664,12 +4866,12 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="53"/>
-      <c r="R100" s="47"/>
+      <c r="R100" s="48"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
-      <c r="A101" s="46"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="53"/>
-      <c r="C101" s="59"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4699,12 +4901,12 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="53"/>
-      <c r="R101" s="47"/>
+      <c r="R101" s="48"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
-      <c r="A102" s="46"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="53"/>
-      <c r="C102" s="59"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4734,12 +4936,12 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="53"/>
-      <c r="R102" s="47"/>
+      <c r="R102" s="48"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
-      <c r="A103" s="46"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="53"/>
-      <c r="C103" s="59"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4769,12 +4971,12 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="53"/>
-      <c r="R103" s="47"/>
+      <c r="R103" s="48"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
-      <c r="A104" s="46"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="53"/>
-      <c r="C104" s="59"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4804,12 +5006,12 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="53"/>
-      <c r="R104" s="47"/>
+      <c r="R104" s="48"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="53"/>
-      <c r="C105" s="59"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4839,12 +5041,12 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="53"/>
-      <c r="R105" s="47"/>
+      <c r="R105" s="48"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
-      <c r="A106" s="46"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="53"/>
-      <c r="C106" s="59"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4874,12 +5076,12 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="53"/>
-      <c r="R106" s="47"/>
+      <c r="R106" s="48"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="53"/>
-      <c r="C107" s="59"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4909,12 +5111,12 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="53"/>
-      <c r="R107" s="47"/>
+      <c r="R107" s="48"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="54"/>
-      <c r="C108" s="59"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4944,14 +5146,14 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="54"/>
-      <c r="R108" s="47"/>
+      <c r="R108" s="48"/>
     </row>
     <row r="109" spans="1:18" ht="63.75" customHeight="1">
-      <c r="A109" s="46"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="52">
         <v>2.6</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="5" t="str">
@@ -4959,10 +5161,10 @@
         <v>OK</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="F109" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>15</v>
@@ -4989,21 +5191,21 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="52"/>
-      <c r="R109" s="47"/>
+      <c r="R109" s="48"/>
     </row>
     <row r="110" spans="1:18" ht="92.25" customHeight="1">
-      <c r="A110" s="46"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="53"/>
-      <c r="C110" s="59"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>15</v>
@@ -5030,12 +5232,12 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="53"/>
-      <c r="R110" s="47"/>
+      <c r="R110" s="48"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
-      <c r="A111" s="46"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="53"/>
-      <c r="C111" s="59"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5065,12 +5267,12 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="53"/>
-      <c r="R111" s="47"/>
+      <c r="R111" s="48"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
-      <c r="A112" s="46"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="53"/>
-      <c r="C112" s="59"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5100,12 +5302,12 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="53"/>
-      <c r="R112" s="47"/>
+      <c r="R112" s="48"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
-      <c r="A113" s="46"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="53"/>
-      <c r="C113" s="59"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5135,12 +5337,12 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="53"/>
-      <c r="R113" s="47"/>
+      <c r="R113" s="48"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
-      <c r="A114" s="46"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="53"/>
-      <c r="C114" s="59"/>
+      <c r="C114" s="57"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5170,12 +5372,12 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="53"/>
-      <c r="R114" s="47"/>
+      <c r="R114" s="48"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
-      <c r="A115" s="46"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="53"/>
-      <c r="C115" s="59"/>
+      <c r="C115" s="57"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5205,12 +5407,12 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="53"/>
-      <c r="R115" s="47"/>
+      <c r="R115" s="48"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
-      <c r="A116" s="46"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="53"/>
-      <c r="C116" s="59"/>
+      <c r="C116" s="57"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5240,12 +5442,12 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="53"/>
-      <c r="R116" s="47"/>
+      <c r="R116" s="48"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
-      <c r="A117" s="46"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="53"/>
-      <c r="C117" s="59"/>
+      <c r="C117" s="57"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5275,12 +5477,12 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="53"/>
-      <c r="R117" s="47"/>
+      <c r="R117" s="48"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
-      <c r="A118" s="46"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="53"/>
-      <c r="C118" s="59"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5310,12 +5512,12 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="53"/>
-      <c r="R118" s="47"/>
+      <c r="R118" s="48"/>
     </row>
     <row r="119" spans="1:18" ht="15.75">
-      <c r="A119" s="46"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="53"/>
-      <c r="C119" s="59"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5345,12 +5547,12 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="53"/>
-      <c r="R119" s="47"/>
+      <c r="R119" s="48"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
-      <c r="A120" s="46"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="53"/>
-      <c r="C120" s="59"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5380,12 +5582,12 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="53"/>
-      <c r="R120" s="47"/>
+      <c r="R120" s="48"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
-      <c r="A121" s="46"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="53"/>
-      <c r="C121" s="59"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5415,12 +5617,12 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="53"/>
-      <c r="R121" s="47"/>
+      <c r="R121" s="48"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
-      <c r="A122" s="46"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="53"/>
-      <c r="C122" s="59"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5450,12 +5652,12 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="53"/>
-      <c r="R122" s="47"/>
+      <c r="R122" s="48"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
-      <c r="A123" s="46"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="54"/>
-      <c r="C123" s="59"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5485,25 +5687,25 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="54"/>
-      <c r="R123" s="47"/>
+      <c r="R123" s="48"/>
     </row>
     <row r="124" spans="1:18" ht="81.75" customHeight="1">
-      <c r="A124" s="46"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="52">
         <v>2.7</v>
       </c>
-      <c r="C124" s="59" t="s">
+      <c r="C124" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>15</v>
@@ -5530,19 +5732,25 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="52"/>
-      <c r="R124" s="47"/>
-    </row>
-    <row r="125" spans="1:18" ht="15.75">
-      <c r="A125" s="46"/>
+      <c r="R124" s="48"/>
+    </row>
+    <row r="125" spans="1:18" ht="25.5">
+      <c r="A125" s="47"/>
       <c r="B125" s="53"/>
-      <c r="C125" s="59"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H125" s="5"/>
       <c r="I125" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5551,33 +5759,39 @@
       <c r="J125" s="12"/>
       <c r="K125" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L125" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M125" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="53"/>
-      <c r="R125" s="47"/>
-    </row>
-    <row r="126" spans="1:18" ht="15.75">
-      <c r="A126" s="46"/>
+      <c r="R125" s="48"/>
+    </row>
+    <row r="126" spans="1:18" ht="51">
+      <c r="A126" s="47"/>
       <c r="B126" s="53"/>
-      <c r="C126" s="59"/>
+      <c r="C126" s="57"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H126" s="8"/>
       <c r="I126" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5586,26 +5800,26 @@
       <c r="J126" s="12"/>
       <c r="K126" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L126" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M126" s="8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="53"/>
-      <c r="R126" s="47"/>
+      <c r="R126" s="48"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
-      <c r="A127" s="46"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="53"/>
-      <c r="C127" s="59"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5635,12 +5849,12 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="53"/>
-      <c r="R127" s="47"/>
+      <c r="R127" s="48"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
-      <c r="A128" s="46"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="53"/>
-      <c r="C128" s="59"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5670,12 +5884,12 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="53"/>
-      <c r="R128" s="47"/>
+      <c r="R128" s="48"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
-      <c r="A129" s="46"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="53"/>
-      <c r="C129" s="59"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5705,12 +5919,12 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="53"/>
-      <c r="R129" s="47"/>
+      <c r="R129" s="48"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
-      <c r="A130" s="46"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="53"/>
-      <c r="C130" s="59"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5740,12 +5954,12 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="53"/>
-      <c r="R130" s="47"/>
+      <c r="R130" s="48"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
-      <c r="A131" s="46"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="53"/>
-      <c r="C131" s="59"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5775,12 +5989,12 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="53"/>
-      <c r="R131" s="47"/>
+      <c r="R131" s="48"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
-      <c r="A132" s="46"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="53"/>
-      <c r="C132" s="59"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5810,12 +6024,12 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="53"/>
-      <c r="R132" s="47"/>
+      <c r="R132" s="48"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
-      <c r="A133" s="46"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="53"/>
-      <c r="C133" s="59"/>
+      <c r="C133" s="57"/>
       <c r="D133" s="5" t="str">
         <f t="shared" ref="D133:D196" si="7">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -5845,12 +6059,12 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="53"/>
-      <c r="R133" s="47"/>
+      <c r="R133" s="48"/>
     </row>
     <row r="134" spans="1:18" ht="15.75">
-      <c r="A134" s="46"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="53"/>
-      <c r="C134" s="59"/>
+      <c r="C134" s="57"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5880,12 +6094,12 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
       <c r="Q134" s="53"/>
-      <c r="R134" s="47"/>
+      <c r="R134" s="48"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
-      <c r="A135" s="46"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="53"/>
-      <c r="C135" s="59"/>
+      <c r="C135" s="57"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5915,12 +6129,12 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
       <c r="Q135" s="53"/>
-      <c r="R135" s="47"/>
+      <c r="R135" s="48"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
-      <c r="A136" s="46"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="53"/>
-      <c r="C136" s="59"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5950,12 +6164,12 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
       <c r="Q136" s="53"/>
-      <c r="R136" s="47"/>
+      <c r="R136" s="48"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
-      <c r="A137" s="46"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="53"/>
-      <c r="C137" s="59"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5985,12 +6199,12 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
       <c r="Q137" s="53"/>
-      <c r="R137" s="47"/>
+      <c r="R137" s="48"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
-      <c r="A138" s="46"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="59"/>
+      <c r="C138" s="57"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6020,14 +6234,14 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="54"/>
-      <c r="R138" s="47"/>
+      <c r="R138" s="48"/>
     </row>
     <row r="139" spans="1:18" ht="15.75">
-      <c r="A139" s="46"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="52">
         <v>2.8</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="5" t="str">
@@ -6059,21 +6273,21 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
       <c r="Q139" s="52"/>
-      <c r="R139" s="47"/>
-    </row>
-    <row r="140" spans="1:18" ht="25.5">
-      <c r="A140" s="46"/>
+      <c r="R139" s="48"/>
+    </row>
+    <row r="140" spans="1:18" ht="38.25">
+      <c r="A140" s="47"/>
       <c r="B140" s="53"/>
-      <c r="C140" s="59"/>
+      <c r="C140" s="57"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="F140" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>15</v>
@@ -6100,12 +6314,12 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="53"/>
-      <c r="R140" s="47"/>
+      <c r="R140" s="48"/>
     </row>
     <row r="141" spans="1:18" ht="51">
-      <c r="A141" s="46"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="53"/>
-      <c r="C141" s="59"/>
+      <c r="C141" s="57"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6113,10 +6327,12 @@
       <c r="E141" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G141" s="10"/>
+      <c r="F141" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H141" s="8"/>
       <c r="I141" s="12" t="str">
         <f t="shared" si="8"/>
@@ -6139,12 +6355,12 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
       <c r="Q141" s="53"/>
-      <c r="R141" s="47"/>
+      <c r="R141" s="48"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
-      <c r="A142" s="46"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="53"/>
-      <c r="C142" s="59"/>
+      <c r="C142" s="57"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6174,12 +6390,12 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
       <c r="Q142" s="53"/>
-      <c r="R142" s="47"/>
+      <c r="R142" s="48"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
-      <c r="A143" s="46"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="53"/>
-      <c r="C143" s="59"/>
+      <c r="C143" s="57"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6209,12 +6425,12 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="53"/>
-      <c r="R143" s="47"/>
+      <c r="R143" s="48"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
-      <c r="A144" s="46"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="53"/>
-      <c r="C144" s="59"/>
+      <c r="C144" s="57"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6244,12 +6460,12 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
       <c r="Q144" s="53"/>
-      <c r="R144" s="47"/>
+      <c r="R144" s="48"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
-      <c r="A145" s="46"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="53"/>
-      <c r="C145" s="59"/>
+      <c r="C145" s="57"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6279,12 +6495,12 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
       <c r="Q145" s="53"/>
-      <c r="R145" s="47"/>
+      <c r="R145" s="48"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
-      <c r="A146" s="46"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="53"/>
-      <c r="C146" s="59"/>
+      <c r="C146" s="57"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6314,12 +6530,12 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
       <c r="Q146" s="53"/>
-      <c r="R146" s="47"/>
+      <c r="R146" s="48"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
-      <c r="A147" s="46"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="53"/>
-      <c r="C147" s="59"/>
+      <c r="C147" s="57"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6349,12 +6565,12 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
       <c r="Q147" s="53"/>
-      <c r="R147" s="47"/>
+      <c r="R147" s="48"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
-      <c r="A148" s="46"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="53"/>
-      <c r="C148" s="59"/>
+      <c r="C148" s="57"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6384,12 +6600,12 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="53"/>
-      <c r="R148" s="47"/>
+      <c r="R148" s="48"/>
     </row>
     <row r="149" spans="1:18" ht="15.75">
-      <c r="A149" s="46"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="53"/>
-      <c r="C149" s="59"/>
+      <c r="C149" s="57"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6419,12 +6635,12 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
       <c r="Q149" s="53"/>
-      <c r="R149" s="47"/>
+      <c r="R149" s="48"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
-      <c r="A150" s="46"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="53"/>
-      <c r="C150" s="59"/>
+      <c r="C150" s="57"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6454,12 +6670,12 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
       <c r="Q150" s="53"/>
-      <c r="R150" s="47"/>
+      <c r="R150" s="48"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
-      <c r="A151" s="46"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="53"/>
-      <c r="C151" s="59"/>
+      <c r="C151" s="57"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6489,12 +6705,12 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
       <c r="Q151" s="53"/>
-      <c r="R151" s="47"/>
+      <c r="R151" s="48"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
-      <c r="A152" s="46"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="53"/>
-      <c r="C152" s="59"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6524,12 +6740,12 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
       <c r="Q152" s="53"/>
-      <c r="R152" s="47"/>
+      <c r="R152" s="48"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
-      <c r="A153" s="46"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="59"/>
+      <c r="C153" s="57"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6559,27 +6775,27 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
       <c r="Q153" s="54"/>
-      <c r="R153" s="47"/>
+      <c r="R153" s="48"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1">
-      <c r="A154" s="47" t="s">
-        <v>29</v>
+      <c r="A154" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="B154" s="52">
         <v>3.1</v>
       </c>
-      <c r="C154" s="59" t="s">
-        <v>30</v>
+      <c r="C154" s="57" t="s">
+        <v>29</v>
       </c>
       <c r="D154" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E154" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>15</v>
@@ -6606,18 +6822,22 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="52"/>
-      <c r="R154" s="47"/>
-    </row>
-    <row r="155" spans="1:18" ht="15.75">
-      <c r="A155" s="47"/>
+      <c r="R154" s="48"/>
+    </row>
+    <row r="155" spans="1:18" ht="38.25">
+      <c r="A155" s="48"/>
       <c r="B155" s="53"/>
-      <c r="C155" s="59"/>
+      <c r="C155" s="57"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="13"/>
+        <v>OK</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="G155" s="10" t="s">
         <v>15</v>
       </c>
@@ -6629,32 +6849,36 @@
       <c r="J155" s="12"/>
       <c r="K155" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L155" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M155" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155" s="53"/>
-      <c r="R155" s="47"/>
-    </row>
-    <row r="156" spans="1:18" ht="15.75">
-      <c r="A156" s="47"/>
+      <c r="R155" s="48"/>
+    </row>
+    <row r="156" spans="1:18" ht="25.5">
+      <c r="A156" s="48"/>
       <c r="B156" s="53"/>
-      <c r="C156" s="59"/>
+      <c r="C156" s="57"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="15"/>
+        <v>OK</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="G156" s="10" t="s">
         <v>15</v>
       </c>
@@ -6666,35 +6890,33 @@
       <c r="J156" s="12"/>
       <c r="K156" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L156" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M156" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
       <c r="Q156" s="53"/>
-      <c r="R156" s="47"/>
+      <c r="R156" s="48"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
-      <c r="A157" s="47"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="53"/>
-      <c r="C157" s="59"/>
+      <c r="C157" s="57"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="15"/>
-      <c r="G157" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G157" s="10"/>
       <c r="H157" s="5"/>
       <c r="I157" s="12" t="str">
         <f t="shared" si="8"/>
@@ -6717,12 +6939,12 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="53"/>
-      <c r="R157" s="47"/>
+      <c r="R157" s="48"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
-      <c r="A158" s="47"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="53"/>
-      <c r="C158" s="59"/>
+      <c r="C158" s="57"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6752,12 +6974,12 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="53"/>
-      <c r="R158" s="47"/>
+      <c r="R158" s="48"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
-      <c r="A159" s="47"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="53"/>
-      <c r="C159" s="59"/>
+      <c r="C159" s="57"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6787,12 +7009,12 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="53"/>
-      <c r="R159" s="47"/>
+      <c r="R159" s="48"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
-      <c r="A160" s="47"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="53"/>
-      <c r="C160" s="59"/>
+      <c r="C160" s="57"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6822,12 +7044,12 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
       <c r="Q160" s="53"/>
-      <c r="R160" s="47"/>
+      <c r="R160" s="48"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
-      <c r="A161" s="47"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="53"/>
-      <c r="C161" s="59"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6857,12 +7079,12 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="53"/>
-      <c r="R161" s="47"/>
+      <c r="R161" s="48"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
-      <c r="A162" s="47"/>
+      <c r="A162" s="48"/>
       <c r="B162" s="53"/>
-      <c r="C162" s="59"/>
+      <c r="C162" s="57"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6892,12 +7114,12 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="53"/>
-      <c r="R162" s="47"/>
+      <c r="R162" s="48"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
-      <c r="A163" s="47"/>
+      <c r="A163" s="48"/>
       <c r="B163" s="53"/>
-      <c r="C163" s="59"/>
+      <c r="C163" s="57"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6927,12 +7149,12 @@
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
       <c r="Q163" s="53"/>
-      <c r="R163" s="47"/>
+      <c r="R163" s="48"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
-      <c r="A164" s="47"/>
+      <c r="A164" s="48"/>
       <c r="B164" s="53"/>
-      <c r="C164" s="59"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6962,12 +7184,12 @@
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
       <c r="Q164" s="53"/>
-      <c r="R164" s="47"/>
+      <c r="R164" s="48"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
-      <c r="A165" s="47"/>
+      <c r="A165" s="48"/>
       <c r="B165" s="53"/>
-      <c r="C165" s="59"/>
+      <c r="C165" s="57"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6997,12 +7219,12 @@
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
       <c r="Q165" s="53"/>
-      <c r="R165" s="47"/>
+      <c r="R165" s="48"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
-      <c r="A166" s="47"/>
+      <c r="A166" s="48"/>
       <c r="B166" s="53"/>
-      <c r="C166" s="59"/>
+      <c r="C166" s="57"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7032,12 +7254,12 @@
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
       <c r="Q166" s="53"/>
-      <c r="R166" s="47"/>
+      <c r="R166" s="48"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
-      <c r="A167" s="47"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="53"/>
-      <c r="C167" s="59"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7067,12 +7289,12 @@
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
       <c r="Q167" s="53"/>
-      <c r="R167" s="47"/>
+      <c r="R167" s="48"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
-      <c r="A168" s="47"/>
+      <c r="A168" s="48"/>
       <c r="B168" s="54"/>
-      <c r="C168" s="59"/>
+      <c r="C168" s="57"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7102,25 +7324,25 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
       <c r="Q168" s="54"/>
-      <c r="R168" s="47"/>
+      <c r="R168" s="48"/>
     </row>
     <row r="169" spans="1:18" ht="51">
-      <c r="A169" s="47"/>
+      <c r="A169" s="48"/>
       <c r="B169" s="52">
         <v>3.2</v>
       </c>
-      <c r="C169" s="59" t="s">
-        <v>32</v>
+      <c r="C169" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D169" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="F169" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>15</v>
@@ -7147,20 +7369,22 @@
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
       <c r="Q169" s="52"/>
-      <c r="R169" s="47"/>
-    </row>
-    <row r="170" spans="1:18" ht="15.75">
-      <c r="A170" s="47"/>
+      <c r="R169" s="48"/>
+    </row>
+    <row r="170" spans="1:18" ht="38.25">
+      <c r="A170" s="48"/>
       <c r="B170" s="53"/>
-      <c r="C170" s="59"/>
+      <c r="C170" s="57"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F170" s="7"/>
+      <c r="F170" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="G170" s="10" t="s">
         <v>15</v>
       </c>
@@ -7186,12 +7410,12 @@
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
       <c r="Q170" s="53"/>
-      <c r="R170" s="47"/>
+      <c r="R170" s="48"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
-      <c r="A171" s="47"/>
+      <c r="A171" s="48"/>
       <c r="B171" s="53"/>
-      <c r="C171" s="59"/>
+      <c r="C171" s="57"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7221,12 +7445,12 @@
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
       <c r="Q171" s="53"/>
-      <c r="R171" s="47"/>
+      <c r="R171" s="48"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
-      <c r="A172" s="47"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="53"/>
-      <c r="C172" s="59"/>
+      <c r="C172" s="57"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7256,12 +7480,12 @@
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
       <c r="Q172" s="53"/>
-      <c r="R172" s="47"/>
+      <c r="R172" s="48"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
-      <c r="A173" s="47"/>
+      <c r="A173" s="48"/>
       <c r="B173" s="53"/>
-      <c r="C173" s="59"/>
+      <c r="C173" s="57"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7291,12 +7515,12 @@
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
       <c r="Q173" s="53"/>
-      <c r="R173" s="47"/>
+      <c r="R173" s="48"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A174" s="47"/>
+      <c r="A174" s="48"/>
       <c r="B174" s="53"/>
-      <c r="C174" s="59"/>
+      <c r="C174" s="57"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7326,12 +7550,12 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="53"/>
-      <c r="R174" s="47"/>
+      <c r="R174" s="48"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A175" s="47"/>
+      <c r="A175" s="48"/>
       <c r="B175" s="53"/>
-      <c r="C175" s="59"/>
+      <c r="C175" s="57"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7361,12 +7585,12 @@
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
       <c r="Q175" s="53"/>
-      <c r="R175" s="47"/>
+      <c r="R175" s="48"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
-      <c r="A176" s="47"/>
+      <c r="A176" s="48"/>
       <c r="B176" s="53"/>
-      <c r="C176" s="59"/>
+      <c r="C176" s="57"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7396,12 +7620,12 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
       <c r="Q176" s="53"/>
-      <c r="R176" s="47"/>
+      <c r="R176" s="48"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
-      <c r="A177" s="47"/>
+      <c r="A177" s="48"/>
       <c r="B177" s="53"/>
-      <c r="C177" s="59"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7431,12 +7655,12 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
       <c r="Q177" s="53"/>
-      <c r="R177" s="47"/>
+      <c r="R177" s="48"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
-      <c r="A178" s="47"/>
+      <c r="A178" s="48"/>
       <c r="B178" s="53"/>
-      <c r="C178" s="59"/>
+      <c r="C178" s="57"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7466,12 +7690,12 @@
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
       <c r="Q178" s="53"/>
-      <c r="R178" s="47"/>
+      <c r="R178" s="48"/>
     </row>
     <row r="179" spans="1:18" ht="15.75">
-      <c r="A179" s="47"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="53"/>
-      <c r="C179" s="59"/>
+      <c r="C179" s="57"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7501,12 +7725,12 @@
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="53"/>
-      <c r="R179" s="47"/>
+      <c r="R179" s="48"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
-      <c r="A180" s="47"/>
+      <c r="A180" s="48"/>
       <c r="B180" s="53"/>
-      <c r="C180" s="59"/>
+      <c r="C180" s="57"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7536,12 +7760,12 @@
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
       <c r="Q180" s="53"/>
-      <c r="R180" s="47"/>
+      <c r="R180" s="48"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
-      <c r="A181" s="47"/>
+      <c r="A181" s="48"/>
       <c r="B181" s="53"/>
-      <c r="C181" s="59"/>
+      <c r="C181" s="57"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7571,12 +7795,12 @@
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
       <c r="Q181" s="53"/>
-      <c r="R181" s="47"/>
+      <c r="R181" s="48"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
-      <c r="A182" s="47"/>
+      <c r="A182" s="48"/>
       <c r="B182" s="53"/>
-      <c r="C182" s="59"/>
+      <c r="C182" s="57"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7606,12 +7830,12 @@
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
       <c r="Q182" s="53"/>
-      <c r="R182" s="47"/>
+      <c r="R182" s="48"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
-      <c r="A183" s="47"/>
+      <c r="A183" s="48"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="59"/>
+      <c r="C183" s="57"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7641,25 +7865,25 @@
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
       <c r="Q183" s="54"/>
-      <c r="R183" s="47"/>
+      <c r="R183" s="48"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A184" s="47"/>
+      <c r="A184" s="48"/>
       <c r="B184" s="52">
         <v>3.3</v>
       </c>
-      <c r="C184" s="59" t="s">
-        <v>34</v>
+      <c r="C184" s="57" t="s">
+        <v>33</v>
       </c>
       <c r="D184" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>49</v>
+      <c r="F184" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>15</v>
@@ -7686,21 +7910,21 @@
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
       <c r="Q184" s="52"/>
-      <c r="R184" s="47"/>
+      <c r="R184" s="48"/>
     </row>
     <row r="185" spans="1:18" ht="25.5">
-      <c r="A185" s="47"/>
+      <c r="A185" s="48"/>
       <c r="B185" s="53"/>
-      <c r="C185" s="59"/>
+      <c r="C185" s="57"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E185" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>36</v>
+      <c r="E185" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F185" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>15</v>
@@ -7727,21 +7951,19 @@
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
       <c r="Q185" s="53"/>
-      <c r="R185" s="47"/>
+      <c r="R185" s="48"/>
     </row>
     <row r="186" spans="1:18" ht="15.75">
-      <c r="A186" s="47"/>
+      <c r="A186" s="48"/>
       <c r="B186" s="53"/>
-      <c r="C186" s="59"/>
+      <c r="C186" s="57"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="7"/>
-      <c r="G186" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G186" s="10"/>
       <c r="H186" s="8"/>
       <c r="I186" s="12" t="str">
         <f t="shared" si="8"/>
@@ -7764,12 +7986,12 @@
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
       <c r="Q186" s="53"/>
-      <c r="R186" s="47"/>
+      <c r="R186" s="48"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
-      <c r="A187" s="47"/>
+      <c r="A187" s="48"/>
       <c r="B187" s="53"/>
-      <c r="C187" s="59"/>
+      <c r="C187" s="57"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7799,12 +8021,12 @@
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
       <c r="Q187" s="53"/>
-      <c r="R187" s="47"/>
+      <c r="R187" s="48"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
-      <c r="A188" s="47"/>
+      <c r="A188" s="48"/>
       <c r="B188" s="53"/>
-      <c r="C188" s="59"/>
+      <c r="C188" s="57"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7834,12 +8056,12 @@
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
       <c r="Q188" s="53"/>
-      <c r="R188" s="47"/>
+      <c r="R188" s="48"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
-      <c r="A189" s="47"/>
+      <c r="A189" s="48"/>
       <c r="B189" s="53"/>
-      <c r="C189" s="59"/>
+      <c r="C189" s="57"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7869,12 +8091,12 @@
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
       <c r="Q189" s="53"/>
-      <c r="R189" s="47"/>
+      <c r="R189" s="48"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
-      <c r="A190" s="47"/>
+      <c r="A190" s="48"/>
       <c r="B190" s="53"/>
-      <c r="C190" s="59"/>
+      <c r="C190" s="57"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7904,12 +8126,12 @@
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
       <c r="Q190" s="53"/>
-      <c r="R190" s="47"/>
+      <c r="R190" s="48"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A191" s="47"/>
+      <c r="A191" s="48"/>
       <c r="B191" s="53"/>
-      <c r="C191" s="59"/>
+      <c r="C191" s="57"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7939,12 +8161,12 @@
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
       <c r="Q191" s="53"/>
-      <c r="R191" s="47"/>
+      <c r="R191" s="48"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
-      <c r="A192" s="47"/>
+      <c r="A192" s="48"/>
       <c r="B192" s="53"/>
-      <c r="C192" s="59"/>
+      <c r="C192" s="57"/>
       <c r="D192" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7974,12 +8196,12 @@
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
       <c r="Q192" s="53"/>
-      <c r="R192" s="47"/>
+      <c r="R192" s="48"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
-      <c r="A193" s="47"/>
+      <c r="A193" s="48"/>
       <c r="B193" s="53"/>
-      <c r="C193" s="59"/>
+      <c r="C193" s="57"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8009,12 +8231,12 @@
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
       <c r="Q193" s="53"/>
-      <c r="R193" s="47"/>
+      <c r="R193" s="48"/>
     </row>
     <row r="194" spans="1:18" ht="15.75">
-      <c r="A194" s="47"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="53"/>
-      <c r="C194" s="59"/>
+      <c r="C194" s="57"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8044,12 +8266,12 @@
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
       <c r="Q194" s="53"/>
-      <c r="R194" s="47"/>
+      <c r="R194" s="48"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
-      <c r="A195" s="47"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="53"/>
-      <c r="C195" s="59"/>
+      <c r="C195" s="57"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8079,12 +8301,12 @@
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
       <c r="Q195" s="53"/>
-      <c r="R195" s="47"/>
+      <c r="R195" s="48"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
-      <c r="A196" s="47"/>
+      <c r="A196" s="48"/>
       <c r="B196" s="53"/>
-      <c r="C196" s="59"/>
+      <c r="C196" s="57"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8114,12 +8336,12 @@
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
       <c r="Q196" s="53"/>
-      <c r="R196" s="47"/>
+      <c r="R196" s="48"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
-      <c r="A197" s="47"/>
+      <c r="A197" s="48"/>
       <c r="B197" s="53"/>
-      <c r="C197" s="59"/>
+      <c r="C197" s="57"/>
       <c r="D197" s="5" t="str">
         <f t="shared" ref="D197:D260" si="11">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8149,12 +8371,12 @@
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
       <c r="Q197" s="53"/>
-      <c r="R197" s="47"/>
+      <c r="R197" s="48"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
-      <c r="A198" s="47"/>
+      <c r="A198" s="48"/>
       <c r="B198" s="54"/>
-      <c r="C198" s="59"/>
+      <c r="C198" s="57"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8184,15 +8406,15 @@
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
       <c r="Q198" s="54"/>
-      <c r="R198" s="47"/>
+      <c r="R198" s="48"/>
     </row>
     <row r="199" spans="1:18" ht="102">
-      <c r="A199" s="47"/>
+      <c r="A199" s="48"/>
       <c r="B199" s="52">
         <v>3.4</v>
       </c>
-      <c r="C199" s="59" t="s">
-        <v>37</v>
+      <c r="C199" s="57" t="s">
+        <v>34</v>
       </c>
       <c r="D199" s="5" t="str">
         <f t="shared" si="11"/>
@@ -8201,8 +8423,8 @@
       <c r="E199" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F199" s="14" t="s">
-        <v>60</v>
+      <c r="F199" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>15</v>
@@ -8229,12 +8451,12 @@
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
       <c r="Q199" s="52"/>
-      <c r="R199" s="47"/>
+      <c r="R199" s="48"/>
     </row>
     <row r="200" spans="1:18" ht="60.75" customHeight="1">
-      <c r="A200" s="47"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="53"/>
-      <c r="C200" s="59"/>
+      <c r="C200" s="57"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
@@ -8242,8 +8464,8 @@
       <c r="E200" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F200" s="14" t="s">
-        <v>61</v>
+      <c r="F200" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>15</v>
@@ -8270,12 +8492,12 @@
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
       <c r="Q200" s="53"/>
-      <c r="R200" s="47"/>
+      <c r="R200" s="48"/>
     </row>
     <row r="201" spans="1:18" ht="51">
-      <c r="A201" s="47"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="53"/>
-      <c r="C201" s="59"/>
+      <c r="C201" s="57"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
@@ -8283,8 +8505,8 @@
       <c r="E201" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F201" s="14" t="s">
-        <v>62</v>
+      <c r="F201" s="64" t="s">
+        <v>76</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>15</v>
@@ -8311,12 +8533,12 @@
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
       <c r="Q201" s="53"/>
-      <c r="R201" s="47"/>
+      <c r="R201" s="48"/>
     </row>
     <row r="202" spans="1:18" ht="127.5">
-      <c r="A202" s="47"/>
+      <c r="A202" s="48"/>
       <c r="B202" s="53"/>
-      <c r="C202" s="59"/>
+      <c r="C202" s="57"/>
       <c r="D202" s="17" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
@@ -8324,8 +8546,8 @@
       <c r="E202" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="62" t="s">
-        <v>63</v>
+      <c r="F202" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>15</v>
@@ -8352,12 +8574,12 @@
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
       <c r="Q202" s="53"/>
-      <c r="R202" s="47"/>
+      <c r="R202" s="48"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
-      <c r="A203" s="47"/>
+      <c r="A203" s="48"/>
       <c r="B203" s="53"/>
-      <c r="C203" s="59"/>
+      <c r="C203" s="57"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8387,12 +8609,12 @@
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
       <c r="Q203" s="53"/>
-      <c r="R203" s="47"/>
+      <c r="R203" s="48"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
-      <c r="A204" s="47"/>
+      <c r="A204" s="48"/>
       <c r="B204" s="53"/>
-      <c r="C204" s="59"/>
+      <c r="C204" s="57"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8422,12 +8644,12 @@
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
       <c r="Q204" s="53"/>
-      <c r="R204" s="47"/>
+      <c r="R204" s="48"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
-      <c r="A205" s="47"/>
+      <c r="A205" s="48"/>
       <c r="B205" s="53"/>
-      <c r="C205" s="59"/>
+      <c r="C205" s="57"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8457,12 +8679,12 @@
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
       <c r="Q205" s="53"/>
-      <c r="R205" s="47"/>
+      <c r="R205" s="48"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
-      <c r="A206" s="47"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="53"/>
-      <c r="C206" s="59"/>
+      <c r="C206" s="57"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8492,12 +8714,12 @@
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
       <c r="Q206" s="53"/>
-      <c r="R206" s="47"/>
+      <c r="R206" s="48"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
-      <c r="A207" s="47"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="53"/>
-      <c r="C207" s="59"/>
+      <c r="C207" s="57"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8527,12 +8749,12 @@
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
       <c r="Q207" s="53"/>
-      <c r="R207" s="47"/>
+      <c r="R207" s="48"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
-      <c r="A208" s="47"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="53"/>
-      <c r="C208" s="59"/>
+      <c r="C208" s="57"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8562,12 +8784,12 @@
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
       <c r="Q208" s="53"/>
-      <c r="R208" s="47"/>
+      <c r="R208" s="48"/>
     </row>
     <row r="209" spans="1:18" ht="15.75">
-      <c r="A209" s="47"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="53"/>
-      <c r="C209" s="59"/>
+      <c r="C209" s="57"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8597,12 +8819,12 @@
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
       <c r="Q209" s="53"/>
-      <c r="R209" s="47"/>
+      <c r="R209" s="48"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
-      <c r="A210" s="47"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="53"/>
-      <c r="C210" s="59"/>
+      <c r="C210" s="57"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8632,12 +8854,12 @@
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
       <c r="Q210" s="53"/>
-      <c r="R210" s="47"/>
+      <c r="R210" s="48"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
-      <c r="A211" s="47"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="53"/>
-      <c r="C211" s="59"/>
+      <c r="C211" s="57"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8667,12 +8889,12 @@
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
       <c r="Q211" s="53"/>
-      <c r="R211" s="47"/>
+      <c r="R211" s="48"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
-      <c r="A212" s="47"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="53"/>
-      <c r="C212" s="59"/>
+      <c r="C212" s="57"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8702,12 +8924,12 @@
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
       <c r="Q212" s="53"/>
-      <c r="R212" s="47"/>
+      <c r="R212" s="48"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
-      <c r="A213" s="47"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="54"/>
-      <c r="C213" s="59"/>
+      <c r="C213" s="57"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8737,12 +8959,12 @@
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
       <c r="Q213" s="54"/>
-      <c r="R213" s="47"/>
+      <c r="R213" s="48"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1">
       <c r="A214" s="19"/>
       <c r="B214" s="52"/>
-      <c r="C214" s="55"/>
+      <c r="C214" s="56"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8772,12 +8994,12 @@
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
       <c r="Q214" s="52"/>
-      <c r="R214" s="47"/>
+      <c r="R214" s="48"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
       <c r="A215" s="19"/>
       <c r="B215" s="53"/>
-      <c r="C215" s="55"/>
+      <c r="C215" s="56"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8807,12 +9029,12 @@
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
       <c r="Q215" s="53"/>
-      <c r="R215" s="47"/>
+      <c r="R215" s="48"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
       <c r="A216" s="19"/>
       <c r="B216" s="53"/>
-      <c r="C216" s="55"/>
+      <c r="C216" s="56"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8842,12 +9064,12 @@
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
       <c r="Q216" s="53"/>
-      <c r="R216" s="47"/>
+      <c r="R216" s="48"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
       <c r="A217" s="19"/>
       <c r="B217" s="53"/>
-      <c r="C217" s="55"/>
+      <c r="C217" s="56"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8877,12 +9099,12 @@
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
       <c r="Q217" s="53"/>
-      <c r="R217" s="47"/>
+      <c r="R217" s="48"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
       <c r="A218" s="19"/>
       <c r="B218" s="53"/>
-      <c r="C218" s="55"/>
+      <c r="C218" s="56"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8912,12 +9134,12 @@
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
       <c r="Q218" s="53"/>
-      <c r="R218" s="47"/>
+      <c r="R218" s="48"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
       <c r="A219" s="19"/>
       <c r="B219" s="53"/>
-      <c r="C219" s="55"/>
+      <c r="C219" s="56"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8947,12 +9169,12 @@
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
       <c r="Q219" s="53"/>
-      <c r="R219" s="47"/>
+      <c r="R219" s="48"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
       <c r="A220" s="19"/>
       <c r="B220" s="53"/>
-      <c r="C220" s="55"/>
+      <c r="C220" s="56"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8982,12 +9204,12 @@
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
       <c r="Q220" s="53"/>
-      <c r="R220" s="47"/>
+      <c r="R220" s="48"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
       <c r="A221" s="19"/>
       <c r="B221" s="53"/>
-      <c r="C221" s="55"/>
+      <c r="C221" s="56"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9017,12 +9239,12 @@
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
       <c r="Q221" s="53"/>
-      <c r="R221" s="47"/>
+      <c r="R221" s="48"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
       <c r="A222" s="19"/>
       <c r="B222" s="53"/>
-      <c r="C222" s="55"/>
+      <c r="C222" s="56"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9052,12 +9274,12 @@
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
       <c r="Q222" s="53"/>
-      <c r="R222" s="47"/>
+      <c r="R222" s="48"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
       <c r="A223" s="19"/>
       <c r="B223" s="53"/>
-      <c r="C223" s="55"/>
+      <c r="C223" s="56"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9087,12 +9309,12 @@
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
       <c r="Q223" s="53"/>
-      <c r="R223" s="47"/>
+      <c r="R223" s="48"/>
     </row>
     <row r="224" spans="1:18" ht="15.75">
       <c r="A224" s="19"/>
       <c r="B224" s="53"/>
-      <c r="C224" s="55"/>
+      <c r="C224" s="56"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9122,12 +9344,12 @@
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
       <c r="Q224" s="53"/>
-      <c r="R224" s="47"/>
+      <c r="R224" s="48"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
       <c r="A225" s="19"/>
       <c r="B225" s="53"/>
-      <c r="C225" s="55"/>
+      <c r="C225" s="56"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9157,12 +9379,12 @@
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
       <c r="Q225" s="53"/>
-      <c r="R225" s="47"/>
+      <c r="R225" s="48"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
       <c r="A226" s="19"/>
       <c r="B226" s="53"/>
-      <c r="C226" s="55"/>
+      <c r="C226" s="56"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9192,12 +9414,12 @@
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
       <c r="Q226" s="53"/>
-      <c r="R226" s="47"/>
+      <c r="R226" s="48"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
       <c r="A227" s="19"/>
       <c r="B227" s="53"/>
-      <c r="C227" s="55"/>
+      <c r="C227" s="56"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9227,12 +9449,12 @@
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
       <c r="Q227" s="53"/>
-      <c r="R227" s="47"/>
+      <c r="R227" s="48"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
       <c r="A228" s="19"/>
       <c r="B228" s="54"/>
-      <c r="C228" s="55"/>
+      <c r="C228" s="56"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9262,12 +9484,12 @@
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
       <c r="Q228" s="54"/>
-      <c r="R228" s="47"/>
+      <c r="R228" s="48"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1">
       <c r="A229" s="19"/>
       <c r="B229" s="52"/>
-      <c r="C229" s="55"/>
+      <c r="C229" s="56"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9297,12 +9519,12 @@
       <c r="O229" s="10"/>
       <c r="P229" s="32"/>
       <c r="Q229" s="52"/>
-      <c r="R229" s="47"/>
+      <c r="R229" s="48"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
       <c r="A230" s="19"/>
       <c r="B230" s="53"/>
-      <c r="C230" s="55"/>
+      <c r="C230" s="56"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9332,12 +9554,12 @@
       <c r="O230" s="10"/>
       <c r="P230" s="32"/>
       <c r="Q230" s="53"/>
-      <c r="R230" s="47"/>
+      <c r="R230" s="48"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
       <c r="A231" s="19"/>
       <c r="B231" s="53"/>
-      <c r="C231" s="55"/>
+      <c r="C231" s="56"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9367,12 +9589,12 @@
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
       <c r="Q231" s="53"/>
-      <c r="R231" s="47"/>
+      <c r="R231" s="48"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
       <c r="A232" s="19"/>
       <c r="B232" s="53"/>
-      <c r="C232" s="55"/>
+      <c r="C232" s="56"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9402,12 +9624,12 @@
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
       <c r="Q232" s="53"/>
-      <c r="R232" s="47"/>
+      <c r="R232" s="48"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
       <c r="A233" s="19"/>
       <c r="B233" s="53"/>
-      <c r="C233" s="55"/>
+      <c r="C233" s="56"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9437,12 +9659,12 @@
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
       <c r="Q233" s="53"/>
-      <c r="R233" s="47"/>
+      <c r="R233" s="48"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
       <c r="A234" s="19"/>
       <c r="B234" s="53"/>
-      <c r="C234" s="55"/>
+      <c r="C234" s="56"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9472,12 +9694,12 @@
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
       <c r="Q234" s="53"/>
-      <c r="R234" s="47"/>
+      <c r="R234" s="48"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
       <c r="A235" s="19"/>
       <c r="B235" s="53"/>
-      <c r="C235" s="55"/>
+      <c r="C235" s="56"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9507,12 +9729,12 @@
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
       <c r="Q235" s="53"/>
-      <c r="R235" s="47"/>
+      <c r="R235" s="48"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
       <c r="A236" s="19"/>
       <c r="B236" s="53"/>
-      <c r="C236" s="55"/>
+      <c r="C236" s="56"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9542,12 +9764,12 @@
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
       <c r="Q236" s="53"/>
-      <c r="R236" s="47"/>
+      <c r="R236" s="48"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
       <c r="A237" s="19"/>
       <c r="B237" s="53"/>
-      <c r="C237" s="55"/>
+      <c r="C237" s="56"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9577,12 +9799,12 @@
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
       <c r="Q237" s="53"/>
-      <c r="R237" s="47"/>
+      <c r="R237" s="48"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
       <c r="A238" s="19"/>
       <c r="B238" s="53"/>
-      <c r="C238" s="55"/>
+      <c r="C238" s="56"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9612,12 +9834,12 @@
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
       <c r="Q238" s="53"/>
-      <c r="R238" s="47"/>
+      <c r="R238" s="48"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
       <c r="A239" s="19"/>
       <c r="B239" s="53"/>
-      <c r="C239" s="55"/>
+      <c r="C239" s="56"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9647,12 +9869,12 @@
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
       <c r="Q239" s="53"/>
-      <c r="R239" s="47"/>
+      <c r="R239" s="48"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
       <c r="A240" s="19"/>
       <c r="B240" s="53"/>
-      <c r="C240" s="55"/>
+      <c r="C240" s="56"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9682,12 +9904,12 @@
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
       <c r="Q240" s="53"/>
-      <c r="R240" s="47"/>
+      <c r="R240" s="48"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
       <c r="A241" s="19"/>
       <c r="B241" s="53"/>
-      <c r="C241" s="55"/>
+      <c r="C241" s="56"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9717,12 +9939,12 @@
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
       <c r="Q241" s="53"/>
-      <c r="R241" s="47"/>
+      <c r="R241" s="48"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
       <c r="A242" s="19"/>
       <c r="B242" s="53"/>
-      <c r="C242" s="55"/>
+      <c r="C242" s="56"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9752,12 +9974,12 @@
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
       <c r="Q242" s="53"/>
-      <c r="R242" s="47"/>
+      <c r="R242" s="48"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
       <c r="A243" s="19"/>
       <c r="B243" s="54"/>
-      <c r="C243" s="55"/>
+      <c r="C243" s="56"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9787,12 +10009,12 @@
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
       <c r="Q243" s="54"/>
-      <c r="R243" s="47"/>
+      <c r="R243" s="48"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
       <c r="A244" s="19"/>
       <c r="B244" s="52"/>
-      <c r="C244" s="55"/>
+      <c r="C244" s="56"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9822,12 +10044,12 @@
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
       <c r="Q244" s="52"/>
-      <c r="R244" s="47"/>
+      <c r="R244" s="48"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
       <c r="A245" s="19"/>
       <c r="B245" s="53"/>
-      <c r="C245" s="55"/>
+      <c r="C245" s="56"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9857,12 +10079,12 @@
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
       <c r="Q245" s="53"/>
-      <c r="R245" s="47"/>
+      <c r="R245" s="48"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
       <c r="A246" s="19"/>
       <c r="B246" s="53"/>
-      <c r="C246" s="55"/>
+      <c r="C246" s="56"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9892,12 +10114,12 @@
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
       <c r="Q246" s="53"/>
-      <c r="R246" s="47"/>
+      <c r="R246" s="48"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
       <c r="A247" s="19"/>
       <c r="B247" s="53"/>
-      <c r="C247" s="55"/>
+      <c r="C247" s="56"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9927,12 +10149,12 @@
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
       <c r="Q247" s="53"/>
-      <c r="R247" s="47"/>
+      <c r="R247" s="48"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
       <c r="A248" s="19"/>
       <c r="B248" s="53"/>
-      <c r="C248" s="55"/>
+      <c r="C248" s="56"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9962,12 +10184,12 @@
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
       <c r="Q248" s="53"/>
-      <c r="R248" s="47"/>
+      <c r="R248" s="48"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
       <c r="A249" s="19"/>
       <c r="B249" s="53"/>
-      <c r="C249" s="55"/>
+      <c r="C249" s="56"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9997,12 +10219,12 @@
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
       <c r="Q249" s="53"/>
-      <c r="R249" s="47"/>
+      <c r="R249" s="48"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
       <c r="A250" s="19"/>
       <c r="B250" s="53"/>
-      <c r="C250" s="55"/>
+      <c r="C250" s="56"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10032,12 +10254,12 @@
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
       <c r="Q250" s="53"/>
-      <c r="R250" s="47"/>
+      <c r="R250" s="48"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
       <c r="A251" s="19"/>
       <c r="B251" s="53"/>
-      <c r="C251" s="55"/>
+      <c r="C251" s="56"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10067,12 +10289,12 @@
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
       <c r="Q251" s="53"/>
-      <c r="R251" s="47"/>
+      <c r="R251" s="48"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
       <c r="A252" s="19"/>
       <c r="B252" s="53"/>
-      <c r="C252" s="55"/>
+      <c r="C252" s="56"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10102,12 +10324,12 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
       <c r="Q252" s="53"/>
-      <c r="R252" s="47"/>
+      <c r="R252" s="48"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
       <c r="A253" s="19"/>
       <c r="B253" s="53"/>
-      <c r="C253" s="55"/>
+      <c r="C253" s="56"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10137,12 +10359,12 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
       <c r="Q253" s="53"/>
-      <c r="R253" s="47"/>
+      <c r="R253" s="48"/>
     </row>
     <row r="254" spans="1:18" ht="15.75">
       <c r="A254" s="19"/>
       <c r="B254" s="53"/>
-      <c r="C254" s="55"/>
+      <c r="C254" s="56"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10172,12 +10394,12 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
       <c r="Q254" s="53"/>
-      <c r="R254" s="47"/>
+      <c r="R254" s="48"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
       <c r="A255" s="19"/>
       <c r="B255" s="53"/>
-      <c r="C255" s="55"/>
+      <c r="C255" s="56"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10207,12 +10429,12 @@
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
       <c r="Q255" s="53"/>
-      <c r="R255" s="47"/>
+      <c r="R255" s="48"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="A256" s="19"/>
       <c r="B256" s="53"/>
-      <c r="C256" s="55"/>
+      <c r="C256" s="56"/>
       <c r="D256" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10242,12 +10464,12 @@
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
       <c r="Q256" s="53"/>
-      <c r="R256" s="47"/>
+      <c r="R256" s="48"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
       <c r="A257" s="19"/>
       <c r="B257" s="53"/>
-      <c r="C257" s="55"/>
+      <c r="C257" s="56"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10277,12 +10499,12 @@
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
       <c r="Q257" s="53"/>
-      <c r="R257" s="47"/>
+      <c r="R257" s="48"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
       <c r="A258" s="19"/>
       <c r="B258" s="54"/>
-      <c r="C258" s="55"/>
+      <c r="C258" s="56"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10312,12 +10534,12 @@
       <c r="O258" s="33"/>
       <c r="P258" s="33"/>
       <c r="Q258" s="54"/>
-      <c r="R258" s="47"/>
+      <c r="R258" s="48"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1">
       <c r="A259" s="19"/>
       <c r="B259" s="52"/>
-      <c r="C259" s="55"/>
+      <c r="C259" s="56"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10347,12 +10569,12 @@
       <c r="O259" s="33"/>
       <c r="P259" s="33"/>
       <c r="Q259" s="52"/>
-      <c r="R259" s="47"/>
+      <c r="R259" s="48"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
       <c r="A260" s="19"/>
       <c r="B260" s="53"/>
-      <c r="C260" s="55"/>
+      <c r="C260" s="56"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10382,12 +10604,12 @@
       <c r="O260" s="33"/>
       <c r="P260" s="33"/>
       <c r="Q260" s="53"/>
-      <c r="R260" s="47"/>
+      <c r="R260" s="48"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
       <c r="A261" s="19"/>
       <c r="B261" s="53"/>
-      <c r="C261" s="55"/>
+      <c r="C261" s="56"/>
       <c r="D261" s="5" t="str">
         <f t="shared" ref="D261:D273" si="15">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10417,12 +10639,12 @@
       <c r="O261" s="33"/>
       <c r="P261" s="33"/>
       <c r="Q261" s="53"/>
-      <c r="R261" s="47"/>
+      <c r="R261" s="48"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
       <c r="A262" s="19"/>
       <c r="B262" s="53"/>
-      <c r="C262" s="55"/>
+      <c r="C262" s="56"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10452,12 +10674,12 @@
       <c r="O262" s="33"/>
       <c r="P262" s="33"/>
       <c r="Q262" s="53"/>
-      <c r="R262" s="47"/>
+      <c r="R262" s="48"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
       <c r="A263" s="19"/>
       <c r="B263" s="53"/>
-      <c r="C263" s="55"/>
+      <c r="C263" s="56"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10487,12 +10709,12 @@
       <c r="O263" s="33"/>
       <c r="P263" s="33"/>
       <c r="Q263" s="53"/>
-      <c r="R263" s="47"/>
+      <c r="R263" s="48"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
       <c r="A264" s="19"/>
       <c r="B264" s="53"/>
-      <c r="C264" s="55"/>
+      <c r="C264" s="56"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10522,12 +10744,12 @@
       <c r="O264" s="33"/>
       <c r="P264" s="33"/>
       <c r="Q264" s="53"/>
-      <c r="R264" s="47"/>
+      <c r="R264" s="48"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
       <c r="A265" s="19"/>
       <c r="B265" s="53"/>
-      <c r="C265" s="55"/>
+      <c r="C265" s="56"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10557,12 +10779,12 @@
       <c r="O265" s="33"/>
       <c r="P265" s="33"/>
       <c r="Q265" s="53"/>
-      <c r="R265" s="47"/>
+      <c r="R265" s="48"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
       <c r="A266" s="19"/>
       <c r="B266" s="53"/>
-      <c r="C266" s="55"/>
+      <c r="C266" s="56"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10591,12 +10813,12 @@
       <c r="N266" s="33"/>
       <c r="P266" s="33"/>
       <c r="Q266" s="53"/>
-      <c r="R266" s="47"/>
+      <c r="R266" s="48"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
       <c r="A267" s="19"/>
       <c r="B267" s="53"/>
-      <c r="C267" s="55"/>
+      <c r="C267" s="56"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10626,12 +10848,12 @@
       <c r="O267" s="33"/>
       <c r="P267" s="33"/>
       <c r="Q267" s="53"/>
-      <c r="R267" s="47"/>
+      <c r="R267" s="48"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
       <c r="A268" s="19"/>
       <c r="B268" s="53"/>
-      <c r="C268" s="55"/>
+      <c r="C268" s="56"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10661,12 +10883,12 @@
       <c r="O268" s="33"/>
       <c r="P268" s="33"/>
       <c r="Q268" s="53"/>
-      <c r="R268" s="47"/>
+      <c r="R268" s="48"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
       <c r="A269" s="19"/>
       <c r="B269" s="53"/>
-      <c r="C269" s="55"/>
+      <c r="C269" s="56"/>
       <c r="D269" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10696,12 +10918,12 @@
       <c r="O269" s="33"/>
       <c r="P269" s="33"/>
       <c r="Q269" s="53"/>
-      <c r="R269" s="47"/>
+      <c r="R269" s="48"/>
     </row>
     <row r="270" spans="1:18" ht="15.75">
       <c r="A270" s="19"/>
       <c r="B270" s="53"/>
-      <c r="C270" s="55"/>
+      <c r="C270" s="56"/>
       <c r="D270" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10731,12 +10953,12 @@
       <c r="O270" s="33"/>
       <c r="P270" s="33"/>
       <c r="Q270" s="53"/>
-      <c r="R270" s="47"/>
+      <c r="R270" s="48"/>
     </row>
     <row r="271" spans="1:18" ht="15.75">
       <c r="A271" s="19"/>
       <c r="B271" s="53"/>
-      <c r="C271" s="55"/>
+      <c r="C271" s="56"/>
       <c r="D271" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10766,12 +10988,12 @@
       <c r="O271" s="33"/>
       <c r="P271" s="33"/>
       <c r="Q271" s="53"/>
-      <c r="R271" s="47"/>
+      <c r="R271" s="48"/>
     </row>
     <row r="272" spans="1:18" ht="15.75">
       <c r="A272" s="19"/>
       <c r="B272" s="53"/>
-      <c r="C272" s="55"/>
+      <c r="C272" s="56"/>
       <c r="D272" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10801,12 +11023,12 @@
       <c r="O272" s="33"/>
       <c r="P272" s="33"/>
       <c r="Q272" s="53"/>
-      <c r="R272" s="47"/>
+      <c r="R272" s="48"/>
     </row>
     <row r="273" spans="1:18" ht="15.75">
       <c r="A273" s="39"/>
       <c r="B273" s="54"/>
-      <c r="C273" s="55"/>
+      <c r="C273" s="56"/>
       <c r="D273" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10836,7 +11058,7 @@
       <c r="O273" s="33"/>
       <c r="P273" s="33"/>
       <c r="Q273" s="54"/>
-      <c r="R273" s="47"/>
+      <c r="R273" s="48"/>
     </row>
     <row r="274" spans="1:18" ht="15.75">
       <c r="G274" s="40"/>
@@ -10854,7 +11076,7 @@
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
       <c r="A275" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B275" s="41"/>
       <c r="C275" s="41"/>
@@ -10890,6 +11112,50 @@
   </sheetData>
   <autoFilter ref="A1:P273"/>
   <mergeCells count="60">
+    <mergeCell ref="R4:R93"/>
+    <mergeCell ref="R94:R273"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="Q244:Q258"/>
+    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="Q64:Q78"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="Q124:Q138"/>
+    <mergeCell ref="Q139:Q153"/>
+    <mergeCell ref="Q154:Q168"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="C154:C168"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="C124:C138"/>
+    <mergeCell ref="C139:C153"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="B259:B273"/>
     <mergeCell ref="A4:A33"/>
     <mergeCell ref="A34:A153"/>
     <mergeCell ref="A154:A213"/>
@@ -10906,118 +11172,74 @@
     <mergeCell ref="B154:B168"/>
     <mergeCell ref="B169:B183"/>
     <mergeCell ref="B184:B198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="C124:C138"/>
-    <mergeCell ref="C139:C153"/>
-    <mergeCell ref="Q154:Q168"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="C154:C168"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="Q124:Q138"/>
-    <mergeCell ref="Q139:Q153"/>
-    <mergeCell ref="R4:R93"/>
-    <mergeCell ref="R94:R273"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="Q199:Q213"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="Q259:Q273"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="Q64:Q78"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11040,35 +11262,41 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E185" r:id="rId2"/>
-    <hyperlink ref="E169" r:id="rId3"/>
-    <hyperlink ref="E19" r:id="rId4"/>
-    <hyperlink ref="E34" r:id="rId5"/>
-    <hyperlink ref="E64" r:id="rId6"/>
-    <hyperlink ref="E65" r:id="rId7"/>
-    <hyperlink ref="E79" r:id="rId8"/>
-    <hyperlink ref="E80" r:id="rId9"/>
-    <hyperlink ref="E94" r:id="rId10"/>
-    <hyperlink ref="E95" r:id="rId11"/>
-    <hyperlink ref="E124" r:id="rId12"/>
-    <hyperlink ref="E154" r:id="rId13"/>
-    <hyperlink ref="E170" r:id="rId14"/>
-    <hyperlink ref="E184" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16"/>
-    <hyperlink ref="E109" r:id="rId17"/>
-    <hyperlink ref="E110" r:id="rId18"/>
-    <hyperlink ref="E140" r:id="rId19"/>
-    <hyperlink ref="E49" r:id="rId20"/>
-    <hyperlink ref="E50" r:id="rId21"/>
-    <hyperlink ref="E51" r:id="rId22"/>
-    <hyperlink ref="E141" r:id="rId23"/>
-    <hyperlink ref="E199" r:id="rId24"/>
-    <hyperlink ref="E200" r:id="rId25"/>
-    <hyperlink ref="E201" r:id="rId26"/>
-    <hyperlink ref="E202" r:id="rId27"/>
+    <hyperlink ref="E169" r:id="rId2"/>
+    <hyperlink ref="E34" r:id="rId3"/>
+    <hyperlink ref="E94" r:id="rId4" display="GGE302_PLAN"/>
+    <hyperlink ref="E109" r:id="rId5"/>
+    <hyperlink ref="E110" r:id="rId6"/>
+    <hyperlink ref="E140" r:id="rId7"/>
+    <hyperlink ref="E49" r:id="rId8"/>
+    <hyperlink ref="E50" r:id="rId9"/>
+    <hyperlink ref="E51" r:id="rId10" display="Telent Map  And GAP"/>
+    <hyperlink ref="E141" r:id="rId11"/>
+    <hyperlink ref="E199" r:id="rId12"/>
+    <hyperlink ref="E200" r:id="rId13"/>
+    <hyperlink ref="E201" r:id="rId14"/>
+    <hyperlink ref="E202" r:id="rId15"/>
+    <hyperlink ref="E5" r:id="rId16"/>
+    <hyperlink ref="E19" r:id="rId17"/>
+    <hyperlink ref="E64" r:id="rId18"/>
+    <hyperlink ref="E65" r:id="rId19"/>
+    <hyperlink ref="E66" r:id="rId20"/>
+    <hyperlink ref="E67" r:id="rId21"/>
+    <hyperlink ref="E68" r:id="rId22"/>
+    <hyperlink ref="E79" r:id="rId23"/>
+    <hyperlink ref="E95" r:id="rId24"/>
+    <hyperlink ref="E124" r:id="rId25"/>
+    <hyperlink ref="E125" r:id="rId26" display="GGE302_PLAN"/>
+    <hyperlink ref="E126" r:id="rId27"/>
+    <hyperlink ref="E154" r:id="rId28"/>
+    <hyperlink ref="E155" r:id="rId29"/>
+    <hyperlink ref="E156" r:id="rId30"/>
+    <hyperlink ref="E170" r:id="rId31"/>
+    <hyperlink ref="E184" r:id="rId32"/>
+    <hyperlink ref="E185" r:id="rId33" display="GGE302_PLAN"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
